--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_91.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_91.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Holiday Inn Express Covington Madisonville</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Covington</t>
   </si>
   <si>
@@ -58,78 +136,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -500,34 +506,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>62811</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70433</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -552,76 +577,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E2" t="n">
+        <v>70433</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_91.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_91.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,2387 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r613804829-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40095</t>
+  </si>
+  <si>
+    <t>4404715</t>
+  </si>
+  <si>
+    <t>613804829</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Overall Good..But Probably Won’t Be Back</t>
+  </si>
+  <si>
+    <t>Exterior of hotel is good, as well as entry.  Problem was room.  We arrived super late.  Comforter reeked of wet dog.  I pushed comforter to foot of bed so that awful odor did not continue to wake me.  When I reported this in am at desk..guy said, “well..this is all your fault because if you had called we would have replaced.” Really?  All my fault comforter reeked before guest arrival. Would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>HIEX GM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded September 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2018</t>
+  </si>
+  <si>
+    <t>Exterior of hotel is good, as well as entry.  Problem was room.  We arrived super late.  Comforter reeked of wet dog.  I pushed comforter to foot of bed so that awful odor did not continue to wake me.  When I reported this in am at desk..guy said, “well..this is all your fault because if you had called we would have replaced.” Really?  All my fault comforter reeked before guest arrival. Would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r564427880-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564427880</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Rooms were clean and smelled good. Beds were comfortable. Nice choice of pillows. Very friendly staff and very close to shopping and many local attractions. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Rooms were clean and smelled good. Beds were comfortable. Nice choice of pillows. Very friendly staff and very close to shopping and many local attractions. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r596390471-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>596390471</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>What a Gem!</t>
+  </si>
+  <si>
+    <t>Went to Covington to visit family and stayed for two nights.Front desk was amazing they went out of their way to get me the room a wanted. Excellent location,close to shopping and movies.I’ll recommend this hotel and definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Went to Covington to visit family and stayed for two nights.Front desk was amazing they went out of their way to get me the room a wanted. Excellent location,close to shopping and movies.I’ll recommend this hotel and definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r583495082-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583495082</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>A new low, avoid at all costs</t>
+  </si>
+  <si>
+    <t>Stayed May 28, 2018. Place looked good from the street. Reception desk was empty, no one around, sign said I stepped away, be  back soon. I shoulda left then.When she finally waddled back we rented a room, expensive for an empty hotel.Room had a blinking bathroom light and the stopper in the tub drain was malfunctioning.'Got keys to another room across the hall--- room was smoked in and stunk.Got keys to another room down the hall, OK excepting dirty bathroom and road noise from I-10 is very loud.Place needs help, like 1st day owning a motel??</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r577959718-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>577959718</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>good place to stay</t>
+  </si>
+  <si>
+    <t>Nice hotel. Friendly Helpful  Staff. Clean room. Not the greatest breakfast  but it was included with our room booking at no extra charge to us.We stayed an extra day here to bike the Rails to Trails bike trail..MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel. Friendly Helpful  Staff. Clean room. Not the greatest breakfast  but it was included with our room booking at no extra charge to us.We stayed an extra day here to bike the Rails to Trails bike trail..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r576442885-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>576442885</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>My go to when I’m area.</t>
+  </si>
+  <si>
+    <t>I have been straying here for past three years or so.  Clean, great service, large rooms, centrally located.  Won’t gamble staying anywhere else when I’m in the area.  It’s location right off hwy 12 and shopping, restaurants, movie theatre, is ideal.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>I have been straying here for past three years or so.  Clean, great service, large rooms, centrally located.  Won’t gamble staying anywhere else when I’m in the area.  It’s location right off hwy 12 and shopping, restaurants, movie theatre, is ideal.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r563419174-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>563419174</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place! Super helpful staff. </t>
+  </si>
+  <si>
+    <t>My hubby called this place home M- F for 3 months last year working in the area. The staff was great. Dexter, the night assistant could not have been more awesome. My son &amp; I visited a few times during my husband’s stay and everyone from security to housekeeping really was so polite and friendly. Decent gym, decent size outdoor pool, very clean room and comfy beds. Safe location with easy access to shopping and restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>My hubby called this place home M- F for 3 months last year working in the area. The staff was great. Dexter, the night assistant could not have been more awesome. My son &amp; I visited a few times during my husband’s stay and everyone from security to housekeeping really was so polite and friendly. Decent gym, decent size outdoor pool, very clean room and comfy beds. Safe location with easy access to shopping and restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r547663596-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>547663596</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>We stayed her for one night.  Overall the hotel is nice, clean and the rooms are spacious.  The staff is great too!  Very sweet and accommodating.  The only issues we had with our stay were the AC units, the smell in the room and the road noise.  The AC units are loud.  We were relocated to three different rooms all of which had the same problem.  Sounds like your sitting on a runway.  Just really loud.  Also, when we entered the rooms there was this overbearing smell.  It wasn't smoke.  It smelled more like dirty mop water.  The tiles in the entry way were sticky.  We stay in a lot of hotels and the rooms just do not smell fresh.  Maybe its the cleaning products they are using?  The next issue we had was the road noise.  The hotel is easily located right off the interstate, but if you are a light sleeper...you will hear the road noise.  So I guess in a way the loud AC unit masked the road noise, but then we couldn't sleep because of the smell and the AC unit.  Overall a good hotel if those things don't bother you.  It was a deal breaker for us so sadly, we will not be back to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>We stayed her for one night.  Overall the hotel is nice, clean and the rooms are spacious.  The staff is great too!  Very sweet and accommodating.  The only issues we had with our stay were the AC units, the smell in the room and the road noise.  The AC units are loud.  We were relocated to three different rooms all of which had the same problem.  Sounds like your sitting on a runway.  Just really loud.  Also, when we entered the rooms there was this overbearing smell.  It wasn't smoke.  It smelled more like dirty mop water.  The tiles in the entry way were sticky.  We stay in a lot of hotels and the rooms just do not smell fresh.  Maybe its the cleaning products they are using?  The next issue we had was the road noise.  The hotel is easily located right off the interstate, but if you are a light sleeper...you will hear the road noise.  So I guess in a way the loud AC unit masked the road noise, but then we couldn't sleep because of the smell and the AC unit.  Overall a good hotel if those things don't bother you.  It was a deal breaker for us so sadly, we will not be back to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r537981342-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>537981342</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Location close to freeway,  shopping and restaurants.  Room typical, closer attention needs to be paid to cleanliness of common areas and temperature of "hot" breakfast. Not much variation in breakfast, but typical of a HI breakfast. Despite these issues, I would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Location close to freeway,  shopping and restaurants.  Room typical, closer attention needs to be paid to cleanliness of common areas and temperature of "hot" breakfast. Not much variation in breakfast, but typical of a HI breakfast. Despite these issues, I would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r527453003-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>527453003</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Always Excellent</t>
+  </si>
+  <si>
+    <t>Only stay here when in Covington and never disappointed.  Al checked us in and met every request.  Some rooms have walk-in showers and we needed one.  He accommodated our request.  Clean big rooms.  Wonderful shower (walk-in).  Great breakfast and friendly breakfast staff.  Can’t go wrong staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Only stay here when in Covington and never disappointed.  Al checked us in and met every request.  Some rooms have walk-in showers and we needed one.  He accommodated our request.  Clean big rooms.  Wonderful shower (walk-in).  Great breakfast and friendly breakfast staff.  Can’t go wrong staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r524867060-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>524867060</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Convenient with all the amenities needed!</t>
+  </si>
+  <si>
+    <t>Visited Covington to attend an event in the downtown area and couldn't get a closer hotel.  This one, however, was a short and easy drive from downtown.  It has good proximity to I-12 without being right on the highway.  It appeared new even though it's been open several years. We were traveling with two other couples and the staff very kindly gave us rooms all on the same floor.  The room was spacious and had wifi and a Keurig coffeemaker.  The complimentary breakfast was an added treat.  We will go back.  Very happy!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Visited Covington to attend an event in the downtown area and couldn't get a closer hotel.  This one, however, was a short and easy drive from downtown.  It has good proximity to I-12 without being right on the highway.  It appeared new even though it's been open several years. We were traveling with two other couples and the staff very kindly gave us rooms all on the same floor.  The room was spacious and had wifi and a Keurig coffeemaker.  The complimentary breakfast was an added treat.  We will go back.  Very happy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r511114406-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>511114406</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Good overnight place on Louisiana I-12 (Covington)</t>
+  </si>
+  <si>
+    <t>Very nice Holiday Inn Express built around 2014. Staff were quite nice and pleasant. Facility was clean, comfortable and reasonably priced. Good location that was fairly easy to get find. Located on outskirts of a mall area. Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r488300837-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>488300837</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>AWESOME FIND</t>
+  </si>
+  <si>
+    <t>Recently we decided to take a chance on this Holiday Inn Express (our concern was because the price was so agreeable).  This turned out to be a fantastic experience.  They are in the process of renovating the rooms so there are a few parts needing updating but overall it was in great shape.  The location was fantastic - great on and off ramp to I 12, great access to all manner of shopping with great stores within easy walking distance, a couple of restaurants within easy walking distance, Sam's Club located right next door and Sam's Club Gas Station across the street.  But the best part of our stay besides the great room with very comfortable beds happens to be the staff.  They were all great and the desk clerk at check-in (Brooke) was outstanding.  We have this motel at the top of our list for all our trips from Texas to Florida which seem to be increasing each year.  Stop in, you can't possible regret it.  They also have a terrific free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Recently we decided to take a chance on this Holiday Inn Express (our concern was because the price was so agreeable).  This turned out to be a fantastic experience.  They are in the process of renovating the rooms so there are a few parts needing updating but overall it was in great shape.  The location was fantastic - great on and off ramp to I 12, great access to all manner of shopping with great stores within easy walking distance, a couple of restaurants within easy walking distance, Sam's Club located right next door and Sam's Club Gas Station across the street.  But the best part of our stay besides the great room with very comfortable beds happens to be the staff.  They were all great and the desk clerk at check-in (Brooke) was outstanding.  We have this motel at the top of our list for all our trips from Texas to Florida which seem to be increasing each year.  Stop in, you can't possible regret it.  They also have a terrific free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r479617159-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479617159</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Busker festival</t>
+  </si>
+  <si>
+    <t>Stayed two nights.  Wonderful room.  Clean and bright.  Comfortable temperatures.  Quiet!  Walking showers.  Great breakfast but needs waffle Machine.  Pancake machine always out of order.   Friendly staff.  Checkin pleasant.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r469687014-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>469687014</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>An overnight stay on a recent road trip</t>
+  </si>
+  <si>
+    <t>Hotel is new, in a location visible from I-12. Many shopping choices in the large plaza. Room was clean, staff was friendly. Although busy I-12 is close-by, traffic was not heard in the hotel or our room. We left early AM so we did not have the breakfast.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r469209466-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>469209466</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>This is a new facility and was very clean with an open lobby. Pleasant check in experience and a clean room. Very convenient to I-12. In room coffee, Kerrigan, TV and refrigerator. Plenty of hot water and towels.I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r466969154-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466969154</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight stop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great location. I've stayed here many times. If you're a teacher, be sure to ask for the government rate. Be sure to bring your teacher ID. Many restaurant eating choices nearby for all ages.  There's even a cafe' du monde nearby. The hotel is clean, well lit parking lot, helpful staff, and your normal hotel breakfast buffet. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r453226769-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>453226769</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great property and great location. </t>
+  </si>
+  <si>
+    <t>Perfect for my business trip. Lots of parking and safe. Beautiful modern rooms. Front desk staff very friendly and attentive. Breakfast is superb. Clean and quiet. This is everything you want in a hotel. Price was right too. Highly recommend this property. Nice big movie theater right next door if you get bored!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r451357593-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>451357593</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here on business on January 11, 2017 very clean room and reasonable rates. Very close to everything you need as far as restaurants shopping etc...Will stay here again when I come back to this area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r435812273-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435812273</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Just returned from spending 3 nights.  I was very pleased with the hotel.  The decor is new and modern and clean.  We had a two queen bed suite and for our family of 4 it was very nice and spacious.  Front desk staff nice and pleasant and accommodating.  The only odd thing was one day when our room was cleaned, they took our used towels but didn't replace them and took our shampoo out of the shower and didn't replace it.The next night our room was cleaned very nicely and restocked.  The breakfast they have is very nice.  I was pleasantly surprised at this too!  Not only do they have the usual cold foods like cereal, yogurt, muffins, they have a whole section of hot foods that included eggs, sausage, turkey sausage, biscuits and gravy and bacon.  And it actually tasted pretty good!  Overall, I would highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Just returned from spending 3 nights.  I was very pleased with the hotel.  The decor is new and modern and clean.  We had a two queen bed suite and for our family of 4 it was very nice and spacious.  Front desk staff nice and pleasant and accommodating.  The only odd thing was one day when our room was cleaned, they took our used towels but didn't replace them and took our shampoo out of the shower and didn't replace it.The next night our room was cleaned very nicely and restocked.  The breakfast they have is very nice.  I was pleasantly surprised at this too!  Not only do they have the usual cold foods like cereal, yogurt, muffins, they have a whole section of hot foods that included eggs, sausage, turkey sausage, biscuits and gravy and bacon.  And it actually tasted pretty good!  Overall, I would highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r435695941-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435695941</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Relocation Trip</t>
+  </si>
+  <si>
+    <t>Great spot!!  Very clean; best smelling room I've ever been in. The beds were very comfortable and pillows were marked "soft and firm."One problem is bathtub had no grip on bottom and could be quite dangerous.  I'd recommend and would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great spot!!  Very clean; best smelling room I've ever been in. The beds were very comfortable and pillows were marked "soft and firm."One problem is bathtub had no grip on bottom and could be quite dangerous.  I'd recommend and would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r434798973-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>434798973</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean </t>
+  </si>
+  <si>
+    <t>It's a lovely hotel, clean and quiet. We just stopped for the night on route to Houston. It was a bit expensive, but because of it's excellent location we chose this hotel. It's near to a lot of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>It's a lovely hotel, clean and quiet. We just stopped for the night on route to Houston. It was a bit expensive, but because of it's excellent location we chose this hotel. It's near to a lot of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r419100095-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>419100095</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>Visited this hotel while visiting family.  The staff was great, the hotel was very clean, and the rooms were very comfortable , especially the bed.  The free breakfast buffet was small but was enough for my wife and I.The hotel was very easy to find using my gps.  It is near lots of shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Visited this hotel while visiting family.  The staff was great, the hotel was very clean, and the rooms were very comfortable , especially the bed.  The free breakfast buffet was small but was enough for my wife and I.The hotel was very easy to find using my gps.  It is near lots of shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r408992766-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>408992766</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Safe Haven from Flood</t>
+  </si>
+  <si>
+    <t>We were traveling to Lafayette, LA. For a family reunion. We were notified about interstate 12 flooding. We stopped at this motel and they were so nice and helpful. The handicap room was very large, clean and the bed was very comfortable. The breakfast buffet was very nice. They made calls for us, to find out if the roads were open the next morning. When we found out they were all flooded, they found us a way to get to family in Mississippi using back roads that were still open for a little while!! We would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>We were traveling to Lafayette, LA. For a family reunion. We were notified about interstate 12 flooding. We stopped at this motel and they were so nice and helpful. The handicap room was very large, clean and the bed was very comfortable. The breakfast buffet was very nice. They made calls for us, to find out if the roads were open the next morning. When we found out they were all flooded, they found us a way to get to family in Mississippi using back roads that were still open for a little while!! We would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r405262293-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>405262293</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Just yesterday!</t>
+  </si>
+  <si>
+    <t>This is our family's usual stop on the way home! Lots of restaurants in the area close to interstate and it has always been good for us.   This last stop was a bit off since the people above us were heavy footed and seen to be marching a good bit of the night. Yes I will be staying again. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEX AGM C, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>This is our family's usual stop on the way home! Lots of restaurants in the area close to interstate and it has always been good for us.   This last stop was a bit off since the people above us were heavy footed and seen to be marching a good bit of the night. Yes I will be staying again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r394696638-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>394696638</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great customer oriented Hotel ! </t>
+  </si>
+  <si>
+    <t>Our stay was originally 4 nights as my son lives a mile or so away , we extended our stay 7 days as it was extremely welcoming to families. We had two children 6 yo and my 6 mo old grand daughter . We didn't rent a car because even in the LA sun we could walk or get a cab quickly and cheap . The hotel staff front desk to housekeeping always were always helpful . If we needed something we asked and they were very happy todo so . Breakfast was included . I'm not a fan of buffets with the room as its rarely great . I usually stay at hotels that are 4 &amp; 5 stars and enjoy room service . The only complaint was get there early or on busy weekends people tend to over indulge and what's left is it . That's not everyday . They had eggs / omelet / alternate , pancakes . All kinds of cold / hot cereals and breakfast muffins , biscuits and Danish . Plenty of fresh fruit . All teas , coffees and juices . Our room was very comfy . It's equipped with a nice desk holding a good size fridge / freezer and a micro . They have a perfect size pool for the room counts . I would definitely stay again and I recommend it . After all the boutique hotels and high end...Our stay was originally 4 nights as my son lives a mile or so away , we extended our stay 7 days as it was extremely welcoming to families. We had two children 6 yo and my 6 mo old grand daughter . We didn't rent a car because even in the LA sun we could walk or get a cab quickly and cheap . The hotel staff front desk to housekeeping always were always helpful . If we needed something we asked and they were very happy todo so . Breakfast was included . I'm not a fan of buffets with the room as its rarely great . I usually stay at hotels that are 4 &amp; 5 stars and enjoy room service . The only complaint was get there early or on busy weekends people tend to over indulge and what's left is it . That's not everyday . They had eggs / omelet / alternate , pancakes . All kinds of cold / hot cereals and breakfast muffins , biscuits and Danish . Plenty of fresh fruit . All teas , coffees and juices . Our room was very comfy . It's equipped with a nice desk holding a good size fridge / freezer and a micro . They have a perfect size pool for the room counts . I would definitely stay again and I recommend it . After all the boutique hotels and high end ones I've used in the Quarter I was NOT disappointed . My son had construction going on but I'd still stay here for a few days next trip ! Only down side was on the pics it shows what appeared to be a small store in the lobby area ( it's just a small staples store ) which by the way is great to break up the monotony of the room with 2 children is clean , colorful and very roomy ! Enjoy the area it's lovely ! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Our stay was originally 4 nights as my son lives a mile or so away , we extended our stay 7 days as it was extremely welcoming to families. We had two children 6 yo and my 6 mo old grand daughter . We didn't rent a car because even in the LA sun we could walk or get a cab quickly and cheap . The hotel staff front desk to housekeeping always were always helpful . If we needed something we asked and they were very happy todo so . Breakfast was included . I'm not a fan of buffets with the room as its rarely great . I usually stay at hotels that are 4 &amp; 5 stars and enjoy room service . The only complaint was get there early or on busy weekends people tend to over indulge and what's left is it . That's not everyday . They had eggs / omelet / alternate , pancakes . All kinds of cold / hot cereals and breakfast muffins , biscuits and Danish . Plenty of fresh fruit . All teas , coffees and juices . Our room was very comfy . It's equipped with a nice desk holding a good size fridge / freezer and a micro . They have a perfect size pool for the room counts . I would definitely stay again and I recommend it . After all the boutique hotels and high end...Our stay was originally 4 nights as my son lives a mile or so away , we extended our stay 7 days as it was extremely welcoming to families. We had two children 6 yo and my 6 mo old grand daughter . We didn't rent a car because even in the LA sun we could walk or get a cab quickly and cheap . The hotel staff front desk to housekeeping always were always helpful . If we needed something we asked and they were very happy todo so . Breakfast was included . I'm not a fan of buffets with the room as its rarely great . I usually stay at hotels that are 4 &amp; 5 stars and enjoy room service . The only complaint was get there early or on busy weekends people tend to over indulge and what's left is it . That's not everyday . They had eggs / omelet / alternate , pancakes . All kinds of cold / hot cereals and breakfast muffins , biscuits and Danish . Plenty of fresh fruit . All teas , coffees and juices . Our room was very comfy . It's equipped with a nice desk holding a good size fridge / freezer and a micro . They have a perfect size pool for the room counts . I would definitely stay again and I recommend it . After all the boutique hotels and high end ones I've used in the Quarter I was NOT disappointed . My son had construction going on but I'd still stay here for a few days next trip ! Only down side was on the pics it shows what appeared to be a small store in the lobby area ( it's just a small staples store ) which by the way is great to break up the monotony of the room with 2 children is clean , colorful and very roomy ! Enjoy the area it's lovely ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r390067799-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>390067799</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>This hotel is new since our trip last year through Covington.  As with most HI-Ex it dod not disappoint.  The staff was pleasant and helpful, and everything was clean and comfortable.  The hotel is located in a new shopping center with a Sam's Club and Zoe's Kitchen restaurant, and it is an easy drive to other restaurants in Covington or the road to Mandeville and the NOLA bridge.  Will probably stay here on our trip to the beach again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is new since our trip last year through Covington.  As with most HI-Ex it dod not disappoint.  The staff was pleasant and helpful, and everything was clean and comfortable.  The hotel is located in a new shopping center with a Sam's Club and Zoe's Kitchen restaurant, and it is an easy drive to other restaurants in Covington or the road to Mandeville and the NOLA bridge.  Will probably stay here on our trip to the beach again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r377061162-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>377061162</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Nice, clean, great staff</t>
+  </si>
+  <si>
+    <t>The front desk is superb. The breakfast was really good and well stocked, and they allowed for latecomers past their stated cut off times. The dining area is comfortable.  Wi Fi is adequate. I highly recommend this HIE for it's convenience to I 12. This location too close to many ( chain) restaurants, shopping and is next to a Hollywood Theaters complex.  Perfect for families too.  The historic town of Madisonville and it's many locally owned restaurants is a close  drive and easy to get to. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2016</t>
+  </si>
+  <si>
+    <t>The front desk is superb. The breakfast was really good and well stocked, and they allowed for latecomers past their stated cut off times. The dining area is comfortable.  Wi Fi is adequate. I highly recommend this HIE for it's convenience to I 12. This location too close to many ( chain) restaurants, shopping and is next to a Hollywood Theaters complex.  Perfect for families too.  The historic town of Madisonville and it's many locally owned restaurants is a close  drive and easy to get to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r373516034-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>373516034</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>This is a clean hotel. Nice rooms with comfortable beds. Small workout room but, I was able to get my heart rate up. Good breakfast area. This location is right off express way. Shopping and restaurants were in walking distance. The staff was nice. Only complaint I had to call several times to get extra towels. We had 3 towels and there was 4 of us.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>This is a clean hotel. Nice rooms with comfortable beds. Small workout room but, I was able to get my heart rate up. Good breakfast area. This location is right off express way. Shopping and restaurants were in walking distance. The staff was nice. Only complaint I had to call several times to get extra towels. We had 3 towels and there was 4 of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r373507587-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>373507587</t>
+  </si>
+  <si>
+    <t>Maybe it was just a bad weekend?</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel.  The facility seems new, check in was a breeze, and when we walked into our room we were impressed with both the size and quality of the room.  Unfortunately, things started downhill from there.  
+•	The first thing we noticed was there was no hand soap anywhere in the room.  When we inquired at the front desk, we were told the hotel was out of soap.  Everyone we spoke with was polite and helpful, it just seemed they did not have what was needed to help us.  There was no soap for both of the nights we were at the hotel, so on night one we used shampoo and bath gel to wash our hands.  The next day we visited a nearby Target and purchased our own bar of soap.  
+•	We stayed in the hotel for 2 nights, and on day 2, requested new bath towels.  We were told that none were available.  My wife had already thrown the used towels on the floor to signal to house cleaning that we wanted replacements so we were down to some smaller hand towels at that point.  About 45 minutes later, housekeeping returned with towels that were not bath towels, but they were larger than hand towels so we made the best of it.  So far no soap, no bath towels though.  
+•	The first night there my wife complained of being uncomfortable because...I really wanted to like this hotel.  The facility seems new, check in was a breeze, and when we walked into our room we were impressed with both the size and quality of the room.  Unfortunately, things started downhill from there.  •	The first thing we noticed was there was no hand soap anywhere in the room.  When we inquired at the front desk, we were told the hotel was out of soap.  Everyone we spoke with was polite and helpful, it just seemed they did not have what was needed to help us.  There was no soap for both of the nights we were at the hotel, so on night one we used shampoo and bath gel to wash our hands.  The next day we visited a nearby Target and purchased our own bar of soap.  •	We stayed in the hotel for 2 nights, and on day 2, requested new bath towels.  We were told that none were available.  My wife had already thrown the used towels on the floor to signal to house cleaning that we wanted replacements so we were down to some smaller hand towels at that point.  About 45 minutes later, housekeeping returned with towels that were not bath towels, but they were larger than hand towels so we made the best of it.  So far no soap, no bath towels though.  •	The first night there my wife complained of being uncomfortable because the sheets had been used so much, they were covered is small little rolled up balls of cotton.  In all fairness, I would not have noticed this, but my wife did to the point that she said they felt ‘scratchy’ on her legs.  Overall the bed was large and the mattress was very comfortable, but the sheets were definitely past their prime.•	The thing that lived in the shower:  On the second day of staying in the room, I noticed something faint that was splashed on the wall of the shower towards the back.  Upon further review it became clear that someone with a moderately severe sinus infection had vented their nostrils while in the shower.  The wall had been clearly wiped since said incident but there was clearly yellow tinted residue that was still stuck to the wall.  Sorry to be gross, it was what I saw.•	On day 2, before we checked out, we went down the breakfast bar at 9:30AM.  I am sure the early risers got the best picks.  But all that was left was 1 Biscuit, 1 Pork Sausage, and some Turkey Sausage.  Something that appeared like gravy was in the tray underneath the lone biscuit, it honestly took me a moment to identify what it was.  The sound a child next to me exclaiming, “Gross daddy what is that?”, let me know that I was not the only one who could not identify the mystery substance.  I opted for a bowl of cereal.  I got a cup of milk, sat down, and took a bite, and experience the most putrid rotten tasting milk I have ever had in my life, it was not just a little bad, it was really bad.  I gave up at that point, went back to the room, and actually used mouthwash to try and get rid of the rotten flavor that was lingering in my mouth.  I gave up and left, opting to eat at the airport.This hotel has awesome reviews and people seem to really like it.  I have realistic standards, and understand that sometimes, things get missed, things go wrong.  At first glance, this hotel seemed like it was awesome.  It exceeded any expectation my wife and I had regarding how nice the room and facility might be.  It was when the details started to emerge, that all the cracks started to appear.  If only one or even two of the things on my list had happened, I would not be complaining.  However, when I look at them collectively, after the last weekend, I cannot recommend this hotel nor would I stay there again.   The staff was polite and were never the issue. Sorry HLI express, the potential is there, and I was honestly impressed when I walked into the building, but during my stay any good will I had was lost due to not having basic amenities, an unclean shower, and serving rotten food.  On the upside, everything I listed is fixable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel.  The facility seems new, check in was a breeze, and when we walked into our room we were impressed with both the size and quality of the room.  Unfortunately, things started downhill from there.  
+•	The first thing we noticed was there was no hand soap anywhere in the room.  When we inquired at the front desk, we were told the hotel was out of soap.  Everyone we spoke with was polite and helpful, it just seemed they did not have what was needed to help us.  There was no soap for both of the nights we were at the hotel, so on night one we used shampoo and bath gel to wash our hands.  The next day we visited a nearby Target and purchased our own bar of soap.  
+•	We stayed in the hotel for 2 nights, and on day 2, requested new bath towels.  We were told that none were available.  My wife had already thrown the used towels on the floor to signal to house cleaning that we wanted replacements so we were down to some smaller hand towels at that point.  About 45 minutes later, housekeeping returned with towels that were not bath towels, but they were larger than hand towels so we made the best of it.  So far no soap, no bath towels though.  
+•	The first night there my wife complained of being uncomfortable because...I really wanted to like this hotel.  The facility seems new, check in was a breeze, and when we walked into our room we were impressed with both the size and quality of the room.  Unfortunately, things started downhill from there.  •	The first thing we noticed was there was no hand soap anywhere in the room.  When we inquired at the front desk, we were told the hotel was out of soap.  Everyone we spoke with was polite and helpful, it just seemed they did not have what was needed to help us.  There was no soap for both of the nights we were at the hotel, so on night one we used shampoo and bath gel to wash our hands.  The next day we visited a nearby Target and purchased our own bar of soap.  •	We stayed in the hotel for 2 nights, and on day 2, requested new bath towels.  We were told that none were available.  My wife had already thrown the used towels on the floor to signal to house cleaning that we wanted replacements so we were down to some smaller hand towels at that point.  About 45 minutes later, housekeeping returned with towels that were not bath towels, but they were larger than hand towels so we made the best of it.  So far no soap, no bath towels though.  •	The first night there my wife complained of being uncomfortable because the sheets had been used so much, they were covered is small little rolled up balls of cotton.  In all fairness, I would not have noticed this, but my wife did to the point that she said they felt ‘scratchy’ on her legs.  Overall the bed was large and the mattress was very comfortable, but the sheets were definitely past their prime.•	The thing that lived in the shower:  On the second day of staying in the room, I noticed something faint that was splashed on the wall of the shower towards the back.  Upon further review it became clear that someone with a moderately severe sinus infection had vented their nostrils while in the shower.  The wall had been clearly wiped since said incident but there was clearly yellow tinted residue that was still stuck to the wall.  Sorry to be gross, it was what I saw.•	On day 2, before we checked out, we went down the breakfast bar at 9:30AM.  I am sure the early risers got the best picks.  But all that was left was 1 Biscuit, 1 Pork Sausage, and some Turkey Sausage.  Something that appeared like gravy was in the tray underneath the lone biscuit, it honestly took me a moment to identify what it was.  The sound a child next to me exclaiming, “Gross daddy what is that?”, let me know that I was not the only one who could not identify the mystery substance.  I opted for a bowl of cereal.  I got a cup of milk, sat down, and took a bite, and experience the most putrid rotten tasting milk I have ever had in my life, it was not just a little bad, it was really bad.  I gave up at that point, went back to the room, and actually used mouthwash to try and get rid of the rotten flavor that was lingering in my mouth.  I gave up and left, opting to eat at the airport.This hotel has awesome reviews and people seem to really like it.  I have realistic standards, and understand that sometimes, things get missed, things go wrong.  At first glance, this hotel seemed like it was awesome.  It exceeded any expectation my wife and I had regarding how nice the room and facility might be.  It was when the details started to emerge, that all the cracks started to appear.  If only one or even two of the things on my list had happened, I would not be complaining.  However, when I look at them collectively, after the last weekend, I cannot recommend this hotel nor would I stay there again.   The staff was polite and were never the issue. Sorry HLI express, the potential is there, and I was honestly impressed when I walked into the building, but during my stay any good will I had was lost due to not having basic amenities, an unclean shower, and serving rotten food.  On the upside, everything I listed is fixable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r368193595-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>368193595</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>WOW!!!</t>
+  </si>
+  <si>
+    <t>Called ahead during long drive for room for the night.  Being a member of the Holiday Inn Club, I was able to use my Reward Nights' Points, so no cash changed hands.  Checked in by a very pleasant lady and was instantly offered an upgrade with our room.  The hotel is only two years old and it is absolutely beautiful.  Apparently Holiday Inn improves with every new build, and this one was no exception.  Our room was larger than a "tiny house."  We had a king-size bed with a separate sitting room and everything sparkled.  We couldn't have asked for more.  Well worth the money/points.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Called ahead during long drive for room for the night.  Being a member of the Holiday Inn Club, I was able to use my Reward Nights' Points, so no cash changed hands.  Checked in by a very pleasant lady and was instantly offered an upgrade with our room.  The hotel is only two years old and it is absolutely beautiful.  Apparently Holiday Inn improves with every new build, and this one was no exception.  Our room was larger than a "tiny house."  We had a king-size bed with a separate sitting room and everything sparkled.  We couldn't have asked for more.  Well worth the money/points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r366629600-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>366629600</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Newer and well-maintained!</t>
+  </si>
+  <si>
+    <t>Easy location on/off highway US 12. Plenty of restaurants and gas stations. Right next door to movie theater, but not disturbing to the experience. Rooms spacious, contemporary design and comfortable furnishings and beds. Hot breakfast was adequate, but serviced well. Front desk very friendly and helpful, warm greeting on arrival.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2016</t>
+  </si>
+  <si>
+    <t>Easy location on/off highway US 12. Plenty of restaurants and gas stations. Right next door to movie theater, but not disturbing to the experience. Rooms spacious, contemporary design and comfortable furnishings and beds. Hot breakfast was adequate, but serviced well. Front desk very friendly and helpful, warm greeting on arrival.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r364996644-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>364996644</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Great Reviews?</t>
+  </si>
+  <si>
+    <t>Great staff.  Don't expect to register early.  Had to wait two hours.  So ate lunch and checked in 3:30 pm.  Staff great.  Rooms very clean and quiet even though close to interstate.   However, air conditioner/ Heater never worked on automatic.  Either froze or suffocated. Would probably try another hotel on next visit.  Breakfast so so!MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Great staff.  Don't expect to register early.  Had to wait two hours.  So ate lunch and checked in 3:30 pm.  Staff great.  Rooms very clean and quiet even though close to interstate.   However, air conditioner/ Heater never worked on automatic.  Either froze or suffocated. Would probably try another hotel on next visit.  Breakfast so so!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r363593829-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>363593829</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>Hotel seemed nice enough.   The breakfast bar was smaller then most and the bananas were either green or or old.  Of course, it's the one thing I like to eat for breakfast.   Noise from the interstate seem to resonate through the hotel no matter what room you are in.  It's rare when I hotel doesn't have at least one quiet area.   In this case it's a result of how the hotel is situated along interstate with both sides facing it.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Hotel seemed nice enough.   The breakfast bar was smaller then most and the bananas were either green or or old.  Of course, it's the one thing I like to eat for breakfast.   Noise from the interstate seem to resonate through the hotel no matter what room you are in.  It's rare when I hotel doesn't have at least one quiet area.   In this case it's a result of how the hotel is situated along interstate with both sides facing it.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r360608145-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>360608145</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>they were able to move to different room after i found out my room was at the elevators i am a light sleeper</t>
+  </si>
+  <si>
+    <t>great restaurants all around,  clean spacious quiet room.  i always stay here when i visit my kids and grandkids in covington.  thank you again for being great hosts.only downfall i found was i wanted something from fridge and they keep it locked now.  i couldn't wait around for an attendant cuz my toast was getting cold.  other than that all was goodMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>great restaurants all around,  clean spacious quiet room.  i always stay here when i visit my kids and grandkids in covington.  thank you again for being great hosts.only downfall i found was i wanted something from fridge and they keep it locked now.  i couldn't wait around for an attendant cuz my toast was getting cold.  other than that all was goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r349270697-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>349270697</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Great spot for business travellers</t>
+  </si>
+  <si>
+    <t>Brand new hotel, beautiful well-appointed room, excellent location only one exit west on I-12 from the traffic and congestion of 190. Excellent service, knowledgeable, friendly staff. We were relatively demanding, first asking for early check-in, then there was a card issue. Maurice at the front desk went out of his way to assist with an app-related issue concerning the card I was using, handling a potentially delicate situation with grace and aplomb far beyond his years. We will be staying here when we come back next year. Recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Leanne L, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Brand new hotel, beautiful well-appointed room, excellent location only one exit west on I-12 from the traffic and congestion of 190. Excellent service, knowledgeable, friendly staff. We were relatively demanding, first asking for early check-in, then there was a card issue. Maurice at the front desk went out of his way to assist with an app-related issue concerning the card I was using, handling a potentially delicate situation with grace and aplomb far beyond his years. We will be staying here when we come back next year. Recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r341560369-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>341560369</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Another Great Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. This was the third stay at a HIE on our recent trip. Like the others, this hotel was great. The young lady at the front desk was so nice and helpful.The room was amazingly nice and clean. The walk-in shower was very nice and clean. The bed was very comfortable with great pillows. We have really fallen for HIE.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Hann_pa, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. This was the third stay at a HIE on our recent trip. Like the others, this hotel was great. The young lady at the front desk was so nice and helpful.The room was amazingly nice and clean. The walk-in shower was very nice and clean. The bed was very comfortable with great pillows. We have really fallen for HIE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r336742106-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>336742106</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Couldn't get room cleaned</t>
+  </si>
+  <si>
+    <t>Stayed three nights and could not get clean towels or bedding. We had to ask front desk and go down and pick up clean items. Front desk was very helpful. But could not get room cleaned, trash also overflowing. Issues with internet access also. It seems like the brand has deteriorated. New property but very poor service. Also left comment on web site but  never got response.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Hann_pa, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Stayed three nights and could not get clean towels or bedding. We had to ask front desk and go down and pick up clean items. Front desk was very helpful. But could not get room cleaned, trash also overflowing. Issues with internet access also. It seems like the brand has deteriorated. New property but very poor service. Also left comment on web site but  never got response.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r334639545-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>334639545</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Comfortable stay!</t>
+  </si>
+  <si>
+    <t>We love Holiday Inn Express for quick overnight trips because they never disappoint. The room here was clean and comfortable. Breakfast of omelettes, biscuits and gravy, sausage, yogurt, and cinnamon rolls was delicious--yes, I ate all of that myself! Coffee was wonderful, as always. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Hann_pa, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded December 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2015</t>
+  </si>
+  <si>
+    <t>We love Holiday Inn Express for quick overnight trips because they never disappoint. The room here was clean and comfortable. Breakfast of omelettes, biscuits and gravy, sausage, yogurt, and cinnamon rolls was delicious--yes, I ate all of that myself! Coffee was wonderful, as always. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r321579429-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>321579429</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Nice stay at a reasonable price</t>
+  </si>
+  <si>
+    <t>We stayed two nights while in town for the Wooden Boat Festival in Madisonville. We chose this hotel because of it's proximity to the free shuttle to the festival. Shopping, movies, and restaurants were within walking distance, which was a plus. The rooms were clean and beds were comfortable. The room air conditioner was louder that I expected (and it made an unusual sound when the compressor kicked on), but we got used to it. The door to our room was right next to the elevators (opened into the elevator "lobby"), but we were not disturbed by noise from the elevators or other guests. The hotel is adjacent to an interstate, but we did not hear any traffic noise in our room. Plenty of free parking on site. The breakfast area had a mix of "couches" and tables, but it was difficult to eat from the "couch" seating when all of the tables were occupied. A variety of breakfast options (hot and cold) were offered each day. The front desk staff was very friendly and helpful!  Would choose this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Hann_pa, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>We stayed two nights while in town for the Wooden Boat Festival in Madisonville. We chose this hotel because of it's proximity to the free shuttle to the festival. Shopping, movies, and restaurants were within walking distance, which was a plus. The rooms were clean and beds were comfortable. The room air conditioner was louder that I expected (and it made an unusual sound when the compressor kicked on), but we got used to it. The door to our room was right next to the elevators (opened into the elevator "lobby"), but we were not disturbed by noise from the elevators or other guests. The hotel is adjacent to an interstate, but we did not hear any traffic noise in our room. Plenty of free parking on site. The breakfast area had a mix of "couches" and tables, but it was difficult to eat from the "couch" seating when all of the tables were occupied. A variety of breakfast options (hot and cold) were offered each day. The front desk staff was very friendly and helpful!  Would choose this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r319421399-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>319421399</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here as a stopping point on a vacation trip.  The hotel gave us everything we could want in a place to stay.  It was quiet, clean and in pristine condition.  The staff was very friendly and accommodating.  Jackie and May Lee were very helpful in recommending places to eat.  This was one of the best hotels we have ever stayed in.  The breakfast was also excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hann_pa, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here as a stopping point on a vacation trip.  The hotel gave us everything we could want in a place to stay.  It was quiet, clean and in pristine condition.  The staff was very friendly and accommodating.  Jackie and May Lee were very helpful in recommending places to eat.  This was one of the best hotels we have ever stayed in.  The breakfast was also excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r317886102-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>317886102</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay!</t>
+  </si>
+  <si>
+    <t>Hotel staff were pleasant and well groomed!  This includes everyone! When we arrived there were cookies and lemonade for guests! Yes, they were good!  We had a king room which was clean and spacious! The parking lot was well lit! Breakfast was good and the attendant did a great job and was sweet as well!  I look forward to staying at the Covington Holiday Inn Express again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hann_pa, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Hotel staff were pleasant and well groomed!  This includes everyone! When we arrived there were cookies and lemonade for guests! Yes, they were good!  We had a king room which was clean and spacious! The parking lot was well lit! Breakfast was good and the attendant did a great job and was sweet as well!  I look forward to staying at the Covington Holiday Inn Express again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r314541420-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>314541420</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Perfect Stay!</t>
+  </si>
+  <si>
+    <t>Room was clean, hotel was quiet and had a well lit parking area. Staff was friendly.  Yummy cookies and beverages to choose from when checking in - tea, coffee or hot chocolate.  Breakfast was delicious with many choices to choose from. Highly recommend!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Hann_pa, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean, hotel was quiet and had a well lit parking area. Staff was friendly.  Yummy cookies and beverages to choose from when checking in - tea, coffee or hot chocolate.  Breakfast was delicious with many choices to choose from. Highly recommend!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r314507212-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>314507212</t>
+  </si>
+  <si>
+    <t>Lovel hotel</t>
+  </si>
+  <si>
+    <t>Just off the highway and only about an hour from NO. Great rooms with massive beds and lovely bathroom. Nice outdoor pool and gym. Good breakfast. Right behind a shopping and food complex with lots of options for food. Very friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Just off the highway and only about an hour from NO. Great rooms with massive beds and lovely bathroom. Nice outdoor pool and gym. Good breakfast. Right behind a shopping and food complex with lots of options for food. Very friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r311563119-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>311563119</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Upscale and Modern!</t>
+  </si>
+  <si>
+    <t>We had two rooms booked - one a larger king and one a double queen.  Both rooms were very clean, well decorated, had plenty of space, outlets, amenities, and a small fridge. The beds were very comfortable, and there were lots of pillows, plus the rooms had great blackout curtains.  The breakfast area was inviting, and decorated in an eclectic manner, and included a flat screen tv.  There were various hot and cold breakfast selections available, and it was kept clean and well stocked.  Those I spoke with at the front desk were always very pleasant and helpful.  There is a mall in the area, plus lots of restaurants and a movie theater you can walk to.  I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>We had two rooms booked - one a larger king and one a double queen.  Both rooms were very clean, well decorated, had plenty of space, outlets, amenities, and a small fridge. The beds were very comfortable, and there were lots of pillows, plus the rooms had great blackout curtains.  The breakfast area was inviting, and decorated in an eclectic manner, and included a flat screen tv.  There were various hot and cold breakfast selections available, and it was kept clean and well stocked.  Those I spoke with at the front desk were always very pleasant and helpful.  There is a mall in the area, plus lots of restaurants and a movie theater you can walk to.  I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r311138091-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>311138091</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We opted to stay just outside of New Orleans on our way to Destin, Fl. And chose the hotel from TA ratings and reviews. We were delighted with the choice. I booked thru TA and again was pleased with the convenience and price. The location was great for our trip and was clean inside and out. A very nice breakfast bar and professional staff. Would recommend to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>We opted to stay just outside of New Orleans on our way to Destin, Fl. And chose the hotel from TA ratings and reviews. We were delighted with the choice. I booked thru TA and again was pleased with the convenience and price. The location was great for our trip and was clean inside and out. A very nice breakfast bar and professional staff. Would recommend to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r298929466-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>298929466</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Boutique Hotel feel</t>
+  </si>
+  <si>
+    <t>This was just a stop over on our way back to Houston from Orlando. We got here at 12 am and Brian at the front desk had us checked in within 5-10 minutes. He was very pleasant and energetic for someone working a night shift. The room was very impressive. The bath products are from bath and body which adds a really upscale touch. The sheets smelled very clean. The free breakfast was a 7 on a scale of 1 to 10. We are total foodies so that is a high score for a continental breakfast. What would give it a 10 is real eggs but for a free breakfast it was good and plenty of variety. We totally loved the inside decor of the lobby and throughout the hotel, it almost gave it a boutique hotel feel. We would definitely stop here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>This was just a stop over on our way back to Houston from Orlando. We got here at 12 am and Brian at the front desk had us checked in within 5-10 minutes. He was very pleasant and energetic for someone working a night shift. The room was very impressive. The bath products are from bath and body which adds a really upscale touch. The sheets smelled very clean. The free breakfast was a 7 on a scale of 1 to 10. We are total foodies so that is a high score for a continental breakfast. What would give it a 10 is real eggs but for a free breakfast it was good and plenty of variety. We totally loved the inside decor of the lobby and throughout the hotel, it almost gave it a boutique hotel feel. We would definitely stop here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r296875523-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>296875523</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t>I have spent several nights here recently due to the hotel's close proximity to the hospital, and it has been a refreshing refuge to escape to for a few hours at the time.  The decor is very mid-century modern meets The Jetsons and the lounge/breakfast area is inviting.  The front desk staff changed my rate to hospital rate after finding out the reason for my stay.  The rooms are well appointed with nice bath products.  The breakfast is standard hotel fare but well stocked.  If you are hungry in the night and need a snack there is a "pancakes til midnight" promotion in August.  Would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I have spent several nights here recently due to the hotel's close proximity to the hospital, and it has been a refreshing refuge to escape to for a few hours at the time.  The decor is very mid-century modern meets The Jetsons and the lounge/breakfast area is inviting.  The front desk staff changed my rate to hospital rate after finding out the reason for my stay.  The rooms are well appointed with nice bath products.  The breakfast is standard hotel fare but well stocked.  If you are hungry in the night and need a snack there is a "pancakes til midnight" promotion in August.  Would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r295664576-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>295664576</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Very impressed!! Very clean and modern</t>
+  </si>
+  <si>
+    <t>While on a long road trip we decided to stay based on the good reviews I had seen online, and boy were they right. I was VERY happy with this hotel! Check in was easy and everyone was very nice! The room was extremely clean (which I am picky) and I felt very comfortable there. The hotel was NEW and very modern. We were able to get a great nights sleep and get on the road! We will definitely be stopping here again on our next trip. HIGHLY recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>While on a long road trip we decided to stay based on the good reviews I had seen online, and boy were they right. I was VERY happy with this hotel! Check in was easy and everyone was very nice! The room was extremely clean (which I am picky) and I felt very comfortable there. The hotel was NEW and very modern. We were able to get a great nights sleep and get on the road! We will definitely be stopping here again on our next trip. HIGHLY recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r294912786-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>294912786</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Wow! Walked into this Hotel and Bam New smell. I was very impressed with the decor, and the cleanliness. The Breakfast was very good, the Beds very comfortable and the room was Big. This will be our go to Hotel when we visit family here from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Wow! Walked into this Hotel and Bam New smell. I was very impressed with the decor, and the cleanliness. The Breakfast was very good, the Beds very comfortable and the room was Big. This will be our go to Hotel when we visit family here from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r293107329-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>293107329</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Very nice but-----</t>
+  </si>
+  <si>
+    <t>The hotel itself was even nicer than we thought it would be.  The provided breakfast turned out to be a very nice surprise.  However, we were unsure of whee to stay while in the Covington area so looked on the internet to find a listing.  The only telephone number my wife could find was an 800 number which turned out to be a booking service.  We couldn't find a number for the hotel itself.  To say the least this was the worst part of the experience!  Don't to and wouldn't ever use the form of reservation again.  Besides not getting the best price I could hardly understand the person I was talking to, not because of a language difference but the post cold war communications equipment being used which allowed me to hear every other conversation going on but mine!  Awful, never again.  I feel the hotel chain bears some of this responsibility for using this service.  Couple of days we were there the maid service forgot a shower mat, shampoo and only provided one bar of soap for use in both the shower and bath sink.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>The hotel itself was even nicer than we thought it would be.  The provided breakfast turned out to be a very nice surprise.  However, we were unsure of whee to stay while in the Covington area so looked on the internet to find a listing.  The only telephone number my wife could find was an 800 number which turned out to be a booking service.  We couldn't find a number for the hotel itself.  To say the least this was the worst part of the experience!  Don't to and wouldn't ever use the form of reservation again.  Besides not getting the best price I could hardly understand the person I was talking to, not because of a language difference but the post cold war communications equipment being used which allowed me to hear every other conversation going on but mine!  Awful, never again.  I feel the hotel chain bears some of this responsibility for using this service.  Couple of days we were there the maid service forgot a shower mat, shampoo and only provided one bar of soap for use in both the shower and bath sink.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r292678337-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>292678337</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Best Hotel</t>
+  </si>
+  <si>
+    <t>Everything was marvelous and I will always encourage people to stop by due to good service and well cleaned and caring staff. Ever since we made it there great service till the time we left. Everybody was so very nice and pleasant and they helped us with everything we needed it. Congrats on the job well done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was marvelous and I will always encourage people to stop by due to good service and well cleaned and caring staff. Ever since we made it there great service till the time we left. Everybody was so very nice and pleasant and they helped us with everything we needed it. Congrats on the job well done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r292439574-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>292439574</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Awesome once again</t>
+  </si>
+  <si>
+    <t>My family stayed here twice during the week with various types of rooms. The first night was on the first floor and was great except for the noise on our ceiling. The group above us sounded as though they were tap dancing. The next night later in the week we stayed on the fourth floor. No noise at all except for the elevator that was right next door to our room. The king suite is definitely worth the money as it seems to have the most room and the furnishings are nicer. Both times the sheets and bathroom was extremely clean. We ate breakfast here at the hotel and found that it was great with many offerings. The ladies manning the breakfast station were polite and patient. The pool was clean and had towels available. We will definitely be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>My family stayed here twice during the week with various types of rooms. The first night was on the first floor and was great except for the noise on our ceiling. The group above us sounded as though they were tap dancing. The next night later in the week we stayed on the fourth floor. No noise at all except for the elevator that was right next door to our room. The king suite is definitely worth the money as it seems to have the most room and the furnishings are nicer. Both times the sheets and bathroom was extremely clean. We ate breakfast here at the hotel and found that it was great with many offerings. The ladies manning the breakfast station were polite and patient. The pool was clean and had towels available. We will definitely be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r289967103-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>289967103</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Great Staff-Clean Modern Hotel just off I-12</t>
+  </si>
+  <si>
+    <t>Front Desk employee really did all she could to help us out when the second flat tire of the day stranded us unexpectedly overnight. The room was fresh and clean and we got a good nights sleep after a difficult day on the road. This Hotel could have really bashed us with an absurd rate as we really were in a jam late on a Sunday night, but they treated us very fairly instead! Great Hotel with a caring staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Front Desk employee really did all she could to help us out when the second flat tire of the day stranded us unexpectedly overnight. The room was fresh and clean and we got a good nights sleep after a difficult day on the road. This Hotel could have really bashed us with an absurd rate as we really were in a jam late on a Sunday night, but they treated us very fairly instead! Great Hotel with a caring staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r286490342-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>286490342</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Service</t>
+  </si>
+  <si>
+    <t>Staff was very courteous and accommodating....rooms were very clean as well as the over-all facility, which is walking distantce from a movie theater, Sam's, local restaurants and shopping ( Marshall's, Michaels'....etc...)....will visit this location again......MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Staff was very courteous and accommodating....rooms were very clean as well as the over-all facility, which is walking distantce from a movie theater, Sam's, local restaurants and shopping ( Marshall's, Michaels'....etc...)....will visit this location again......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r284204670-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>284204670</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Excellent staff and service</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were extremely accommodating!!!  We were there with a large group of friends for a lacrosse tournament.  The staff set up breakfast earlier than usual so that our boys could have a hot meal in the morning.  The service was fabulous from the time we checked in to the time we check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were extremely accommodating!!!  We were there with a large group of friends for a lacrosse tournament.  The staff set up breakfast earlier than usual so that our boys could have a hot meal in the morning.  The service was fabulous from the time we checked in to the time we check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r283925753-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>283925753</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Rooms were very clean as well as facilities. Staff very accommodating and courteous!  Great location by movie theater and restaurants. Washing machines and dryers were readily available.  Lots of nearby eateries and shopping for all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Rooms were very clean as well as facilities. Staff very accommodating and courteous!  Great location by movie theater and restaurants. Washing machines and dryers were readily available.  Lots of nearby eateries and shopping for all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r283903381-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>283903381</t>
+  </si>
+  <si>
+    <t>Big Easy Classic Lacrosse Tournament</t>
+  </si>
+  <si>
+    <t>Our Lacrosse team stayed at the hotel last weekend. Everyone at the hotel was so nice and accommodating from the front desk staff to the housecleaning staff. Our team had a very early start on Sunday so they setup breakfast early for the boys as well as held some rooms for the boys to shower up in after they were finished with the games that day as we had a long drive back home. That was especially nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our Lacrosse team stayed at the hotel last weekend. Everyone at the hotel was so nice and accommodating from the front desk staff to the housecleaning staff. Our team had a very early start on Sunday so they setup breakfast early for the boys as well as held some rooms for the boys to shower up in after they were finished with the games that day as we had a long drive back home. That was especially nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r283865986-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>283865986</t>
+  </si>
+  <si>
+    <t>Great Customer Service and Location</t>
+  </si>
+  <si>
+    <t>One of the best hotels we stayed in for a very long time.  Hotel was clean and up to date.  Very nice facility and located to just about anything you need food or store wise.  The staff went above and beyond to meet our needs.  These folks could teach a lot to other hotels about true customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>One of the best hotels we stayed in for a very long time.  Hotel was clean and up to date.  Very nice facility and located to just about anything you need food or store wise.  The staff went above and beyond to meet our needs.  These folks could teach a lot to other hotels about true customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r282515568-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>282515568</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Our stay was great! The front desk attendant was very helpful and efficient. Our room was very clean and tidy.  Housekeeping did a great job!  I would definitely stay again and refer friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Our stay was great! The front desk attendant was very helpful and efficient. Our room was very clean and tidy.  Housekeeping did a great job!  I would definitely stay again and refer friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r278865830-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>278865830</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveling through Louisiana </t>
+  </si>
+  <si>
+    <t>Had a positive experience last time I was at a Holiday Inn Express. Was passing through Louisiana and decided to stop here in Covington. Great experience, friendly staff, clean rooms, and great amenities. The breakfast was excellent. I highly recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Had a positive experience last time I was at a Holiday Inn Express. Was passing through Louisiana and decided to stop here in Covington. Great experience, friendly staff, clean rooms, and great amenities. The breakfast was excellent. I highly recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r277571863-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>277571863</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>4 Night Stay</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights. My mother lives across the street and we come to visit with her. We also drive into N.O. many many times. It takes about 45 minutes to get into town from the hotel. Plenty of food options close. Hotel was clean and comfortable if a bit pricey...MoreShow less</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights. My mother lives across the street and we come to visit with her. We also drive into N.O. many many times. It takes about 45 minutes to get into town from the hotel. Plenty of food options close. Hotel was clean and comfortable if a bit pricey...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r274836874-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>274836874</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Unexpected service</t>
+  </si>
+  <si>
+    <t>After driving for four hours in heavy, heavy rain I stopped at this location. The night clerk helped with bags, showed me g the room to ensure it was clean and ready. The room was exceptional and the sleep was most restful. In the morning, after a refreshing hot shower with plush towels, I had complimentary coffee and a non-ending hot breakfast. Overall everything was just great. ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>After driving for four hours in heavy, heavy rain I stopped at this location. The night clerk helped with bags, showed me g the room to ensure it was clean and ready. The room was exceptional and the sleep was most restful. In the morning, after a refreshing hot shower with plush towels, I had complimentary coffee and a non-ending hot breakfast. Overall everything was just great. ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r273826597-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273826597</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>One of the best yet !</t>
+  </si>
+  <si>
+    <t>I stayed here for a week May 18-22 for work/training. My check in was good May, you did a great job welcoming me even at 8p.m. Thanks! The room was immaculate and I'm one who checks everything, trust me. Everyday when I came back my bed was turned down and room was cleaned. The keeper even rolled up my wire on my flat iron. Lol! Every morning Torie, in the breakfast area had fresh fruit, everything Well stocked and filled. Everything was Hot ! And there's plenty options. Thanks again Torie! I was greeted every morning by Jacque at the desk as I went to my training! Thanks for the positive upbeat and helpfulness.The location is so ideal to restaurants,shopping centers,movie theater in walking distance! and to the interstate. I travel often for business and family and I always take time to do these to help others and be honest.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Leanne_AGM, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for a week May 18-22 for work/training. My check in was good May, you did a great job welcoming me even at 8p.m. Thanks! The room was immaculate and I'm one who checks everything, trust me. Everyday when I came back my bed was turned down and room was cleaned. The keeper even rolled up my wire on my flat iron. Lol! Every morning Torie, in the breakfast area had fresh fruit, everything Well stocked and filled. Everything was Hot ! And there's plenty options. Thanks again Torie! I was greeted every morning by Jacque at the desk as I went to my training! Thanks for the positive upbeat and helpfulness.The location is so ideal to restaurants,shopping centers,movie theater in walking distance! and to the interstate. I travel often for business and family and I always take time to do these to help others and be honest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r273194816-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273194816</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>new, and super comfortable next to movie theater :)</t>
+  </si>
+  <si>
+    <t>my wife and I stayed here to get away for an evening... the room was amazing.  bathroom was large and roomy, large soaker tub, and the whole room beautifully decorated.  nice stay with a free breakfast.   one of the nicer hotels in the area.  Right next the the movies if you are in the area and looking for something to do.  MoreShow less</t>
+  </si>
+  <si>
+    <t>my wife and I stayed here to get away for an evening... the room was amazing.  bathroom was large and roomy, large soaker tub, and the whole room beautifully decorated.  nice stay with a free breakfast.   one of the nicer hotels in the area.  Right next the the movies if you are in the area and looking for something to do.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r269061443-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>269061443</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>What a wonderful place to stay! Very Clean! Staff very friendly and helpful! Breakfast was very good! Would stay there again! We have been very pleased with our stays at Holiday Inn Express! When we travel now we always look for a Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>What a wonderful place to stay! Very Clean! Staff very friendly and helpful! Breakfast was very good! Would stay there again! We have been very pleased with our stays at Holiday Inn Express! When we travel now we always look for a Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r268018487-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>268018487</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Fantastically Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>This hotel was clean and very comfortable with friendly staff. It's close to a number of restaurants as well as shopping. We were actually booked at a different Holiday Inn in the same town but due to overbooking our reservations were transferred to this hotel; the transfer was trouble free. My only complaint was our room location right by the elevator easy to find but Noisy. We called the front desk about the noise and the problem was resolved.MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was clean and very comfortable with friendly staff. It's close to a number of restaurants as well as shopping. We were actually booked at a different Holiday Inn in the same town but due to overbooking our reservations were transferred to this hotel; the transfer was trouble free. My only complaint was our room location right by the elevator easy to find but Noisy. We called the front desk about the noise and the problem was resolved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r267205016-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>267205016</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Exceptionsl</t>
+  </si>
+  <si>
+    <t>Very clean. Room was extra nice. Staff was beyond helpful and friendly.  I would def stay here again and recommend it to my friends. Location is good. Having a Sams Club on the same property made driving to it a little long. Shopping and movie theater next door. Covington was beautiful. This location was great for business MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Very clean. Room was extra nice. Staff was beyond helpful and friendly.  I would def stay here again and recommend it to my friends. Location is good. Having a Sams Club on the same property made driving to it a little long. Shopping and movie theater next door. Covington was beautiful. This location was great for business More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r265960441-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>265960441</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Very good hotel.</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is easy to get off and on the interstate.  Parking we no problem with several Handicap parking spots  The room was very nice. very clean and very comfortable.  The staff was very friendly.  The only complaint I have is that there was not muck for the breakfast Bar, it lacked  in variety, and the eggs were not good at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is easy to get off and on the interstate.  Parking we no problem with several Handicap parking spots  The room was very nice. very clean and very comfortable.  The staff was very friendly.  The only complaint I have is that there was not muck for the breakfast Bar, it lacked  in variety, and the eggs were not good at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r261074578-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>261074578</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Would not recommend!</t>
+  </si>
+  <si>
+    <t>I only stayed here one night and that was too long. The decor is very beautiful, but that's the only nice thing I have to say. The lobby and halls were full of giant Mosquitos. I was given a room by a side door and had to listen to people coming in and out all night long. With the constant door slamming, I got zero sleep. On checkout morning, housekeeping kept knocking on my door to clean. I've never been bothered by housekeeping on checkout morning, so I couldn't understand why she kept bothering me. The last time I had to tell her that I was checking me out and asked if she could wait until after that time. Upon checkout, I was asked if thing a were okay and I mentioned the slamming door. The person behind the desk only smiled and asked if I needed a printout of the receipt. I've stayed at many Holiday Inn Express locations and have never had an experience like this. I will not be staying again. MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>I only stayed here one night and that was too long. The decor is very beautiful, but that's the only nice thing I have to say. The lobby and halls were full of giant Mosquitos. I was given a room by a side door and had to listen to people coming in and out all night long. With the constant door slamming, I got zero sleep. On checkout morning, housekeeping kept knocking on my door to clean. I've never been bothered by housekeeping on checkout morning, so I couldn't understand why she kept bothering me. The last time I had to tell her that I was checking me out and asked if she could wait until after that time. Upon checkout, I was asked if thing a were okay and I mentioned the slamming door. The person behind the desk only smiled and asked if I needed a printout of the receipt. I've stayed at many Holiday Inn Express locations and have never had an experience like this. I will not be staying again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r260102484-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>260102484</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Good new hotel</t>
+  </si>
+  <si>
+    <t>We passed through the Covington area on a recent road trip to Florida. I felt very fortunate to happen upon this property. The hotel seem very new. Everything about our single night stay was great. They served one of the better free breakfast I have experienced at a chain hotel. The staff at the breakfast were very friendly and great with my child. This is the place to stay if you are in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>We passed through the Covington area on a recent road trip to Florida. I felt very fortunate to happen upon this property. The hotel seem very new. Everything about our single night stay was great. They served one of the better free breakfast I have experienced at a chain hotel. The staff at the breakfast were very friendly and great with my child. This is the place to stay if you are in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r257191167-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257191167</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Absolutely wonderful!</t>
+  </si>
+  <si>
+    <t>Working in the hospitality industry, we know good service, ambiance, and customer service when we experience it. Trust me when we tell you that this hotel is by far the best yet! Between the elegant atmosphere, to the courteous service, we were blown away. The front desk clerk, Ashlan, was the most accommodating and genuinely one of the sweetest people we have met! This hotel, and the room, has a very special meaning.  What was once untouchable, is now tangible. It has reserved a special place in our hearts, forever!Sincerely,Smoke 301MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Working in the hospitality industry, we know good service, ambiance, and customer service when we experience it. Trust me when we tell you that this hotel is by far the best yet! Between the elegant atmosphere, to the courteous service, we were blown away. The front desk clerk, Ashlan, was the most accommodating and genuinely one of the sweetest people we have met! This hotel, and the room, has a very special meaning.  What was once untouchable, is now tangible. It has reserved a special place in our hearts, forever!Sincerely,Smoke 301More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r256089563-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>256089563</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Excellent Service and Accomodations</t>
+  </si>
+  <si>
+    <t>I stay at this location for business. Ashley has been a tremendous help in facilitating my stays. They are accommodating toward my need for early check ins and other amenities. This is the only place I stay when on the Northshore. The service is excellent and the staff is exceedingly hospitable. MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I stay at this location for business. Ashley has been a tremendous help in facilitating my stays. They are accommodating toward my need for early check ins and other amenities. This is the only place I stay when on the Northshore. The service is excellent and the staff is exceedingly hospitable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r255697388-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>255697388</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Just Average Holiday Experience</t>
+  </si>
+  <si>
+    <t>We stayed here recently for a week during Mardi Gras. We had a vehicle so we did not mind staying on the north shore. Location of this hotel is good. The decor is modern and enjoyed the ambiance of the room. The breakfast was good as is expected for a holiday inn express which is usually my hotel of choice. The lady that runs the breakfast in the morning is very friendly and does an excellent job. There are some room for improvement though in this hotel. We had some issues that we brought up with the front desk staff that were not addressed during our week long stay. One of the issues is that our door would not lock; one could just push on the door and it opened. The other was the in room internet service Wifi was not working. This lead to a poorer experience and holiday as we enjoying watching netflix on our computer at night.  One other issue is the bathroom downstairs in the lobby by the fitness area is always quite dirty and paper towel was overflowing out of the garbage all over the floor. Also the price was a little high for a holiday inn express. Given these issues we will probably not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here recently for a week during Mardi Gras. We had a vehicle so we did not mind staying on the north shore. Location of this hotel is good. The decor is modern and enjoyed the ambiance of the room. The breakfast was good as is expected for a holiday inn express which is usually my hotel of choice. The lady that runs the breakfast in the morning is very friendly and does an excellent job. There are some room for improvement though in this hotel. We had some issues that we brought up with the front desk staff that were not addressed during our week long stay. One of the issues is that our door would not lock; one could just push on the door and it opened. The other was the in room internet service Wifi was not working. This lead to a poorer experience and holiday as we enjoying watching netflix on our computer at night.  One other issue is the bathroom downstairs in the lobby by the fitness area is always quite dirty and paper towel was overflowing out of the garbage all over the floor. Also the price was a little high for a holiday inn express. Given these issues we will probably not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r255446187-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>255446187</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>As I have come to expect from HI Ex. Very Good!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night while out of town on business. It is just as I now expect from Holiday Inn Express. Clean, convenient and a decent breakfast. It appears to be somewhat new. Two things to mention though. The first room they put me in was up toward the adjacent highway and to me it was loud.  I could hear almost a constant road noise and the large trucks were even louder. I went down and asked for a room more towards the back and it was better. Now, I might not have noticed the road noise as much if the television system worked. When I checked in at about 3 it didn't work and they said it would be fixed soon.  When I went to bed at 11 it still didn't work. In the morning it was back on. So, I don't know whose fault that was but the unfortunate thing to me is that I was the customer paying for and wanting that amenity and not getting it. TV is important to me when I'm alone and wanting to relax for the evening. I think it would have been appropriate for HI to maybe offer me some bonus Priority Club account points. I would stay here again (but make sure the TV is working before I check in) That is my honest opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night while out of town on business. It is just as I now expect from Holiday Inn Express. Clean, convenient and a decent breakfast. It appears to be somewhat new. Two things to mention though. The first room they put me in was up toward the adjacent highway and to me it was loud.  I could hear almost a constant road noise and the large trucks were even louder. I went down and asked for a room more towards the back and it was better. Now, I might not have noticed the road noise as much if the television system worked. When I checked in at about 3 it didn't work and they said it would be fixed soon.  When I went to bed at 11 it still didn't work. In the morning it was back on. So, I don't know whose fault that was but the unfortunate thing to me is that I was the customer paying for and wanting that amenity and not getting it. TV is important to me when I'm alone and wanting to relax for the evening. I think it would have been appropriate for HI to maybe offer me some bonus Priority Club account points. I would stay here again (but make sure the TV is working before I check in) That is my honest opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r251930315-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>251930315</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I had to fly in for a funeral and I wasn't in the best mood, forgot a lot of stuff at home, and I was hungry. The desk agent was super nice, gave me a discount, found me a cab, told me where the good restaurants were, and woke me up on time. Thank you for everything! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>I had to fly in for a funeral and I wasn't in the best mood, forgot a lot of stuff at home, and I was hungry. The desk agent was super nice, gave me a discount, found me a cab, told me where the good restaurants were, and woke me up on time. Thank you for everything! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r249017057-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>249017057</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Best stay ever!!!</t>
+  </si>
+  <si>
+    <t>I found to this being new was very clean and well kept. The breakfast was very well stocked. Did not use the fitness center but it is well kept. Location is very easy.  We will be retuning again in a few months.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>HanP_69354, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>I found to this being new was very clean and well kept. The breakfast was very well stocked. Did not use the fitness center but it is well kept. Location is very easy.  We will be retuning again in a few months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r247909065-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247909065</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>NOT WHAT YOU EXPECT FROM A NEW HOTEL</t>
+  </si>
+  <si>
+    <t>We normally stopover in the Covington area on our trips from Houston to Destin, tried many places in the area and thought this being a rather new hotel would be good value for money.The Good:  Excellent breakfast and friendly staffThe Bad: Hairs in shower and on the bathroom floor, lots of hairs. The A/C was on and set to 60 degrees (freezing cold) when we wanted a warm room coming in from a cold December night.MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded January 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2015</t>
+  </si>
+  <si>
+    <t>We normally stopover in the Covington area on our trips from Houston to Destin, tried many places in the area and thought this being a rather new hotel would be good value for money.The Good:  Excellent breakfast and friendly staffThe Bad: Hairs in shower and on the bathroom floor, lots of hairs. The A/C was on and set to 60 degrees (freezing cold) when we wanted a warm room coming in from a cold December night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r247653095-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247653095</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Stolen Items</t>
+  </si>
+  <si>
+    <t>This was a nice new hotel but one of the maids stole a very expensive jacket and a pair of earrings from my room.My jacket was turned in a few days later by some one in housekeeping who said they Found It.  The hotel mailed the jacket to me by regular mail during the holidays which took over a week, but they have yet to locate my earrings nor have they made any attempt to reimburse me.  My husband has called them 5 times but the person he needs to talk to is always off.  I will take this all the way up the chain if need be.MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded January 12, 2015</t>
+  </si>
+  <si>
+    <t>This was a nice new hotel but one of the maids stole a very expensive jacket and a pair of earrings from my room.My jacket was turned in a few days later by some one in housekeeping who said they Found It.  The hotel mailed the jacket to me by regular mail during the holidays which took over a week, but they have yet to locate my earrings nor have they made any attempt to reimburse me.  My husband has called them 5 times but the person he needs to talk to is always off.  I will take this all the way up the chain if need be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r246565775-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>246565775</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Brand new hotel but a long way to go</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Holiday Inn Express - As the hotel was practically new, I tried not to be too harsh and give them a chance to "iron out the bugs" - Unfortunately, we pulled under the check in canopy to find a plate of uneaten food on the bench, a wet towel on the ground and beer and coke bottles on top of the trash can but not in it - Again, I tried to give them some room for improvement - Check in was easy but the room had a burned area on the new cover and some type of crumbs on the bed - Upon pulling the covers back I discovered several long black hairs - The bathroom door would not stay partially open so to block the light we had to put a towel on the floor - This combined with what sound like kids jumping off a bed above us really gave me no choice but to rate it poor - Maybe by feedback will help them get on trackMoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2015</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Holiday Inn Express - As the hotel was practically new, I tried not to be too harsh and give them a chance to "iron out the bugs" - Unfortunately, we pulled under the check in canopy to find a plate of uneaten food on the bench, a wet towel on the ground and beer and coke bottles on top of the trash can but not in it - Again, I tried to give them some room for improvement - Check in was easy but the room had a burned area on the new cover and some type of crumbs on the bed - Upon pulling the covers back I discovered several long black hairs - The bathroom door would not stay partially open so to block the light we had to put a towel on the floor - This combined with what sound like kids jumping off a bed above us really gave me no choice but to rate it poor - Maybe by feedback will help them get on trackMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r246115029-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>246115029</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>We stayed here Christmas Eve night while visiting family. We thought since the hotel is fairly new that it would be nice. Well the decor is some kind of funky 70s vibe. I didn't get that at all! Downstairs it seems nice and clean but when we got to the room that changed. There was dust everywhere! In the bathroom it looked like a Sasquatch had been in there, hair all over the floor and in the shower. I mean literally everywhere! Then to make it even better bright lights in the parking lot were aimed right at the window and the crappy curtains wouldn't stay closed. So we try to lay down and get some rest as it's gettin late and what do you know, more hair on the sheets!!  Needless to say we slept on top of the blanket. I will never ever stay here again and I wouldn't recommend it to anyone! MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here Christmas Eve night while visiting family. We thought since the hotel is fairly new that it would be nice. Well the decor is some kind of funky 70s vibe. I didn't get that at all! Downstairs it seems nice and clean but when we got to the room that changed. There was dust everywhere! In the bathroom it looked like a Sasquatch had been in there, hair all over the floor and in the shower. I mean literally everywhere! Then to make it even better bright lights in the parking lot were aimed right at the window and the crappy curtains wouldn't stay closed. So we try to lay down and get some rest as it's gettin late and what do you know, more hair on the sheets!!  Needless to say we slept on top of the blanket. I will never ever stay here again and I wouldn't recommend it to anyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r244754409-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244754409</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Great location on the North Shore</t>
+  </si>
+  <si>
+    <t>We booked a room last minute ude to a death family.  The room was the perfect location for us, so easy to find right off I-12 and close to everything we needed.  The location was pretty quiet, even though it's right next to a mall and the interstate.  The hotel was modern, clean, and comfortable with a mini fridge, microwave, and coffee maker in the room. The free breakfast had a nice selection of foods available, and we even had free cookies in the evening.  I'd be happy to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>HanP_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded December 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2014</t>
+  </si>
+  <si>
+    <t>We booked a room last minute ude to a death family.  The room was the perfect location for us, so easy to find right off I-12 and close to everything we needed.  The location was pretty quiet, even though it's right next to a mall and the interstate.  The hotel was modern, clean, and comfortable with a mini fridge, microwave, and coffee maker in the room. The free breakfast had a nice selection of foods available, and we even had free cookies in the evening.  I'd be happy to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r237888976-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237888976</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Modern and chic!</t>
+  </si>
+  <si>
+    <t>We picked this hotel due to location on a long trip and reviews I read about how modern it looked.  It is really a great deal and has a nice modern design.  The overall design is very stylish but comfortable, with very comfortable bedding and a large TV.  The location in the shopping center cannot be beat-great shopping and restaurants-all very clean and new!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Jenn_W_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>We picked this hotel due to location on a long trip and reviews I read about how modern it looked.  It is really a great deal and has a nice modern design.  The overall design is very stylish but comfortable, with very comfortable bedding and a large TV.  The location in the shopping center cannot be beat-great shopping and restaurants-all very clean and new!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r236347507-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>236347507</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Looks new inside and out. Great location near interstate, plenty shopping and food options nearby. Decor looks great, plenty parking, friendly staff. Great complimentary hot breakfast available. Inside room looks nice and includes nice sized refrigerator, microwave, and free wifi. Only downside is size of room kind of small (pretty standard) and beds and bedding are just average.MoreShow less</t>
+  </si>
+  <si>
+    <t>Looks new inside and out. Great location near interstate, plenty shopping and food options nearby. Decor looks great, plenty parking, friendly staff. Great complimentary hot breakfast available. Inside room looks nice and includes nice sized refrigerator, microwave, and free wifi. Only downside is size of room kind of small (pretty standard) and beds and bedding are just average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r226770489-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>226770489</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>AWESOME!</t>
+  </si>
+  <si>
+    <t>We came to town for a wedding in Franklinton. The stay was awesome .. hotel, room and decor was just beautiful! WE HAD A 2BED SUITE ..AS NONE OF US WANTED TO SHARE A BED. ALL BEDS WERE COMFY (INC. THE PULL OUT) AND THERE WAS PLENTY OF ROOM. Breakfast on Sat am was great ..pancakes, omlettes, bacon and ham and more.. much more than I expected.  Also, it's located right off the interstate and inside of a shopping stripmall (Ross, Marshalls, Shoe carnival, charming charlies all in your backyard). Restaurants and a huge Sam's club is right across the street too. I bought a last minute item to complete my wedding outfit but needed a safety pin bad ..went downstairs and Chelsey at the front desk gave me a cute little sewing kit w/ a safety pin in it!!!  Lifesaver!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We came to town for a wedding in Franklinton. The stay was awesome .. hotel, room and decor was just beautiful! WE HAD A 2BED SUITE ..AS NONE OF US WANTED TO SHARE A BED. ALL BEDS WERE COMFY (INC. THE PULL OUT) AND THERE WAS PLENTY OF ROOM. Breakfast on Sat am was great ..pancakes, omlettes, bacon and ham and more.. much more than I expected.  Also, it's located right off the interstate and inside of a shopping stripmall (Ross, Marshalls, Shoe carnival, charming charlies all in your backyard). Restaurants and a huge Sam's club is right across the street too. I bought a last minute item to complete my wedding outfit but needed a safety pin bad ..went downstairs and Chelsey at the front desk gave me a cute little sewing kit w/ a safety pin in it!!!  Lifesaver!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r217900795-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>217900795</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>A unique Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express looks like all the others from the outside but once you step into the lobby you'll know it's different. The colors are different and everything looks new. The rooms have very modern décor and are well equipped for the contemporary traveler. 
+I asked about the hotel's departure from the usual corporate generic look of most HI Express hotels and was told by the desk that this was a franchisee location. The good news is that this franchisee has done a great job of giving the hotel a unique and engaging look. The bad news is that I don't think there can be any guarantee all HI Express hotels will be as nice as this one. I would actually recommend that you not stay here for your first HI Express experience, it might spoil you.
+The basics you expect from the HIE line are all here of course; the generally accessible location, the complimentary breakfast, and the usually clean and serviceable environments and features all at a reasonable price. It's still an HIE, not a five star hotel and not meant to be (pool and exercise room are modest), but a solid three star at a two star price.
+But the different look of this hotel really gave it extra appeal. The lobby is stylish and the rooms too. But it's not all just for looks. We were very impressed that our room had comfortable beds and...This Holiday Inn Express looks like all the others from the outside but once you step into the lobby you'll know it's different. The colors are different and everything looks new. The rooms have very modern décor and are well equipped for the contemporary traveler. I asked about the hotel's departure from the usual corporate generic look of most HI Express hotels and was told by the desk that this was a franchisee location. The good news is that this franchisee has done a great job of giving the hotel a unique and engaging look. The bad news is that I don't think there can be any guarantee all HI Express hotels will be as nice as this one. I would actually recommend that you not stay here for your first HI Express experience, it might spoil you.The basics you expect from the HIE line are all here of course; the generally accessible location, the complimentary breakfast, and the usually clean and serviceable environments and features all at a reasonable price. It's still an HIE, not a five star hotel and not meant to be (pool and exercise room are modest), but a solid three star at a two star price.But the different look of this hotel really gave it extra appeal. The lobby is stylish and the rooms too. But it's not all just for looks. We were very impressed that our room had comfortable beds and attractive furniture, but it was also very functional. There were electrical sockets everywhere so everyone could charge their devices. There was a working desk with comfortable chair but also multiple places to sit with little TV tables that were perfect for laptops or secondary work spaces for people not using the main desk. We stayed in the larger room with the two queen beds and a pullout sofa bed and it was really great to have that space for our group.We did not need to ask for much help from the staff (everything from the air conditioning to the in-room coffee machine worked fine), but they all seemed very nice. Complimentary breakfasts are now common in many hotels but when one of the breakfast attendants made rounds to ask everyone if everything was OK, that was a first for me. And while large flat-screen TVs are also common in most hotels now, I find that many of them suffer from poor picture quality. As one of the other reviewers mentioned, in this hotel the picture quality was very good.Caveats? While the wifi is free and easy to connect to, we noticed that on a busy night the performance can suffer but I think you'll have this same problem in most busy hotels. In the end, this is one of the best HIE hotels I've used. Even without its unique charms, it's in a great location. It's close to lots of stores and restaurants and a theater. If you were like us and traveling to/from a vacation destination, there's also a Sam's Club next door so you can get supplies for the road. Can they keep up the quality here as the popularity of the hotel increases with what I'm sure will be more good reviews? I sure hope so because the next time I'm headed east toward Florida for another vacation this will be one of my stops.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express looks like all the others from the outside but once you step into the lobby you'll know it's different. The colors are different and everything looks new. The rooms have very modern décor and are well equipped for the contemporary traveler. 
+I asked about the hotel's departure from the usual corporate generic look of most HI Express hotels and was told by the desk that this was a franchisee location. The good news is that this franchisee has done a great job of giving the hotel a unique and engaging look. The bad news is that I don't think there can be any guarantee all HI Express hotels will be as nice as this one. I would actually recommend that you not stay here for your first HI Express experience, it might spoil you.
+The basics you expect from the HIE line are all here of course; the generally accessible location, the complimentary breakfast, and the usually clean and serviceable environments and features all at a reasonable price. It's still an HIE, not a five star hotel and not meant to be (pool and exercise room are modest), but a solid three star at a two star price.
+But the different look of this hotel really gave it extra appeal. The lobby is stylish and the rooms too. But it's not all just for looks. We were very impressed that our room had comfortable beds and...This Holiday Inn Express looks like all the others from the outside but once you step into the lobby you'll know it's different. The colors are different and everything looks new. The rooms have very modern décor and are well equipped for the contemporary traveler. I asked about the hotel's departure from the usual corporate generic look of most HI Express hotels and was told by the desk that this was a franchisee location. The good news is that this franchisee has done a great job of giving the hotel a unique and engaging look. The bad news is that I don't think there can be any guarantee all HI Express hotels will be as nice as this one. I would actually recommend that you not stay here for your first HI Express experience, it might spoil you.The basics you expect from the HIE line are all here of course; the generally accessible location, the complimentary breakfast, and the usually clean and serviceable environments and features all at a reasonable price. It's still an HIE, not a five star hotel and not meant to be (pool and exercise room are modest), but a solid three star at a two star price.But the different look of this hotel really gave it extra appeal. The lobby is stylish and the rooms too. But it's not all just for looks. We were very impressed that our room had comfortable beds and attractive furniture, but it was also very functional. There were electrical sockets everywhere so everyone could charge their devices. There was a working desk with comfortable chair but also multiple places to sit with little TV tables that were perfect for laptops or secondary work spaces for people not using the main desk. We stayed in the larger room with the two queen beds and a pullout sofa bed and it was really great to have that space for our group.We did not need to ask for much help from the staff (everything from the air conditioning to the in-room coffee machine worked fine), but they all seemed very nice. Complimentary breakfasts are now common in many hotels but when one of the breakfast attendants made rounds to ask everyone if everything was OK, that was a first for me. And while large flat-screen TVs are also common in most hotels now, I find that many of them suffer from poor picture quality. As one of the other reviewers mentioned, in this hotel the picture quality was very good.Caveats? While the wifi is free and easy to connect to, we noticed that on a busy night the performance can suffer but I think you'll have this same problem in most busy hotels. In the end, this is one of the best HIE hotels I've used. Even without its unique charms, it's in a great location. It's close to lots of stores and restaurants and a theater. If you were like us and traveling to/from a vacation destination, there's also a Sam's Club next door so you can get supplies for the road. Can they keep up the quality here as the popularity of the hotel increases with what I'm sure will be more good reviews? I sure hope so because the next time I'm headed east toward Florida for another vacation this will be one of my stops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r215921286-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215921286</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Beautiful property ... Great lighting ... Smells new!!</t>
+  </si>
+  <si>
+    <t>After such a bad experience in Biloxi, MS last Saturday night, my husband and I were able to find a beautiful Holiday Inn property in Covington/Madisonville, LA which was right off the interstate. When I called at 11:30p to make a reservation, Dynasty answered and was perky and pleasant. She ensured that we would have a room, and greeted us when we walked through the lobby door. There were a number of other guests in the parking lot and lobby, so we felt safe!! We were ready to pay full premium price for a room, and Dynasty was kind enough to offer us a discounted rate, as we were checking in after midnight.This is a new property in Covington/Madisonville, and we will be recommending this hotel to everyone!! Give it a try ... room rates are reasonable, rooms are clean, and you will feel safe at this property!! And if you happen to run into Dynasty at the front desk, tell her that we sent you!! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>After such a bad experience in Biloxi, MS last Saturday night, my husband and I were able to find a beautiful Holiday Inn property in Covington/Madisonville, LA which was right off the interstate. When I called at 11:30p to make a reservation, Dynasty answered and was perky and pleasant. She ensured that we would have a room, and greeted us when we walked through the lobby door. There were a number of other guests in the parking lot and lobby, so we felt safe!! We were ready to pay full premium price for a room, and Dynasty was kind enough to offer us a discounted rate, as we were checking in after midnight.This is a new property in Covington/Madisonville, and we will be recommending this hotel to everyone!! Give it a try ... room rates are reasonable, rooms are clean, and you will feel safe at this property!! And if you happen to run into Dynasty at the front desk, tell her that we sent you!! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r215821883-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215821883</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>A great new HI EX</t>
+  </si>
+  <si>
+    <t>We frequently stay in HI express: they are always clean and super comfortable while on the road. This one is very modern with things like multiple plug in outlets and easy access wi-fi. There is a large mini-frig, microwave, and huge rooms. Consistency plus modern - very nice. Handicap accessible rooms available; if you only need grab bars, the shower/tub is user friendly. This is a good exit for chain food restaurants, movies, and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>We frequently stay in HI express: they are always clean and super comfortable while on the road. This one is very modern with things like multiple plug in outlets and easy access wi-fi. There is a large mini-frig, microwave, and huge rooms. Consistency plus modern - very nice. Handicap accessible rooms available; if you only need grab bars, the shower/tub is user friendly. This is a good exit for chain food restaurants, movies, and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r215262815-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215262815</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great new addition to area </t>
+  </si>
+  <si>
+    <t>Stayed here last night. This is probably the nicest HI Express I've ever stayed in. Yes, it's very new and very chic. I love that HI corp has decided to hire some interesting decorators to create an awesome experience for road-weary travelers. Pros: decor, spaciousness in suites, bath and body works toiletries, choice of firm or soft pillows already labeled on bed, fantastic complimentary breakfast, check in process, front desk employee pleasantness, power supply availability, bathroom lighting Cons:  old cigarette smell in the foyer, overload of febreeze smell in rooms, no sheets for sofa bed, supposedly "clean" extra pillow in plastic bag that was COVERED in black hairs (gross!!!!!), being put in rooms (309) adjoined to elevator due to constant sounds, dirty shower doors MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here last night. This is probably the nicest HI Express I've ever stayed in. Yes, it's very new and very chic. I love that HI corp has decided to hire some interesting decorators to create an awesome experience for road-weary travelers. Pros: decor, spaciousness in suites, bath and body works toiletries, choice of firm or soft pillows already labeled on bed, fantastic complimentary breakfast, check in process, front desk employee pleasantness, power supply availability, bathroom lighting Cons:  old cigarette smell in the foyer, overload of febreeze smell in rooms, no sheets for sofa bed, supposedly "clean" extra pillow in plastic bag that was COVERED in black hairs (gross!!!!!), being put in rooms (309) adjoined to elevator due to constant sounds, dirty shower doors More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r214895505-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>214895505</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Designer chic decor in a Holiday Inn</t>
+  </si>
+  <si>
+    <t>Really interesting to see this décor in this very nice new hotel. Best description would be Dr. Suess took a trip to the Big Easy and took a side trip to the Lone Star state! In other words-decorated maybe how other parts of the world envision New Orleans by way of Texas. Over the top but just right for a road weary traveler! My room had a recliner that looked like a throne with an ottoman done in cowhide and rhinestones studs. Cool and so unexpected. Great bedding and towels-actually it all is great. This would be a great romantic hotel just due to the décor.Looks like a great suburban shopping center-very nice location I am sure-pretty close to Interstate 10 but not so close it has the noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Really interesting to see this décor in this very nice new hotel. Best description would be Dr. Suess took a trip to the Big Easy and took a side trip to the Lone Star state! In other words-decorated maybe how other parts of the world envision New Orleans by way of Texas. Over the top but just right for a road weary traveler! My room had a recliner that looked like a throne with an ottoman done in cowhide and rhinestones studs. Cool and so unexpected. Great bedding and towels-actually it all is great. This would be a great romantic hotel just due to the décor.Looks like a great suburban shopping center-very nice location I am sure-pretty close to Interstate 10 but not so close it has the noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r214206175-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>214206175</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super nice! </t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and it is very very nice.  Super clean and I love the decor.  King room is super big  and spacious.  Will definitely stay again.  It's near several restaurants and stores for shopping.  Movie theater right next door.  Easy access to causeway.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and it is very very nice.  Super clean and I love the decor.  King room is super big  and spacious.  Will definitely stay again.  It's near several restaurants and stores for shopping.  Movie theater right next door.  Easy access to causeway.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r213822210-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>213822210</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>highly recommended: clean, safe, modern, good price</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel few days ago, and can say I am totally satisfated. Stayed with my son and husband. Very very clean, safe place, friendly and respectful staff. We slept as babies. TV video quality is great...even than the tv we have at home :). We wanted to stay again here, but the next hotel in our trip had non-refundable rate. Evreything is or looks as new, modern look.Location perfect, sice there were many stores around...MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel few days ago, and can say I am totally satisfated. Stayed with my son and husband. Very very clean, safe place, friendly and respectful staff. We slept as babies. TV video quality is great...even than the tv we have at home :). We wanted to stay again here, but the next hotel in our trip had non-refundable rate. Evreything is or looks as new, modern look.Location perfect, sice there were many stores around...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r212550338-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>212550338</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Best hotel customer service ever!!</t>
+  </si>
+  <si>
+    <t>We found ourselves in Covington without a reservation because we have never had trouble before with our halfway point to Destin. Well this weekend there just happened to be a boys lacrosse tournament called The Big Easy Classic and there was not a 2 bed room anywhere to be found. Not even a king with a sleeper sofa and rollaway bed, because my son and daughter DO NOT want to share a pull out couch together. We were all close to losing it when we pulled into this Holiday Inn Express and there was Brianna! Sunshine and happiness! She didn't have any rooms at all left but what she did next had me amazed. She proceed to look up neighboring hotels that appeared to have rooms and gave us their straight dial in numbers to make sure we found something that would accommodate my family of 4. Brianna you went above and beyond for a non-customer and I will always stay at your hotel when stopping in Covington. Trust me though I will book ahead!! Thanks sweet girl! You're an asset to Holiday Inn and that amazing attitude will take you far!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn_W_69354, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>We found ourselves in Covington without a reservation because we have never had trouble before with our halfway point to Destin. Well this weekend there just happened to be a boys lacrosse tournament called The Big Easy Classic and there was not a 2 bed room anywhere to be found. Not even a king with a sleeper sofa and rollaway bed, because my son and daughter DO NOT want to share a pull out couch together. We were all close to losing it when we pulled into this Holiday Inn Express and there was Brianna! Sunshine and happiness! She didn't have any rooms at all left but what she did next had me amazed. She proceed to look up neighboring hotels that appeared to have rooms and gave us their straight dial in numbers to make sure we found something that would accommodate my family of 4. Brianna you went above and beyond for a non-customer and I will always stay at your hotel when stopping in Covington. Trust me though I will book ahead!! Thanks sweet girl! You're an asset to Holiday Inn and that amazing attitude will take you far!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r211590577-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>211590577</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Brand new, spotless hotel.</t>
+  </si>
+  <si>
+    <t>This was a very nice experience, and a nice surprise. The decor in this brand new hotel is nothing like the standard HiE decor, and it is a welcome change. Everything was in order, the staff was helpful and polite, the rooms and public areas was very clean (well, how dirty could they become in such a short time) and the breakfast area was inviting and well stocked. If you have a car, and/or are travelling with kids this is a good place to use as base for visits to New Orleans and other nearby areas. The only thing that was missing on our visit was the pool, apparently it was out of season and the pool was closed. This information should be given on the hotel website, as it is a very important amenity travelling with children.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jenn_W_69354, Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>This was a very nice experience, and a nice surprise. The decor in this brand new hotel is nothing like the standard HiE decor, and it is a welcome change. Everything was in order, the staff was helpful and polite, the rooms and public areas was very clean (well, how dirty could they become in such a short time) and the breakfast area was inviting and well stocked. If you have a car, and/or are travelling with kids this is a good place to use as base for visits to New Orleans and other nearby areas. The only thing that was missing on our visit was the pool, apparently it was out of season and the pool was closed. This information should be given on the hotel website, as it is a very important amenity travelling with children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r208697120-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>208697120</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!</t>
+  </si>
+  <si>
+    <t>A thoroughly impressive hotel. I usually stay at another brand, where I rank as a Diamond member. This hotel changed my opinion of the Holiday Inn brand. Fantastic decor, comfortable bedding, friendly staff… All-around was an outstanding experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon_R_GM, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>A thoroughly impressive hotel. I usually stay at another brand, where I rank as a Diamond member. This hotel changed my opinion of the Holiday Inn brand. Fantastic decor, comfortable bedding, friendly staff… All-around was an outstanding experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r207570006-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207570006</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay.  I will stay here again.</t>
+  </si>
+  <si>
+    <t>I was in town on business.  I had business all over Southern Louisiania, so I needed a central location.  This was a good place and in a great location.  It is very close to Sam's and a Target which is in a nice shopping center with lots of nice stores, a movie theater, and several eating options very close by.  A nice feature for a business traveler.
+The hotel was super clean with large rooms and a nice clean bathroom.  They offered free WiFi (which I had problems with and never seemed to work as well as it should have) and free breakfast which was a typical hotel breakfast, but a little better.  The only two things I didn't like were that the fitness center was very small and lacked equipment for a full workout, and I had almost no cell phone reception in the hotel.  I had to go outside on several occasions just to make phone calls.
+The staff was very friendly and very helpful.  They helped me with restaurant suggestions a couple of times and were always greeting me when I was arriving or telling me to have a good day when I was leaving.
+Being away from home is never my choice, but the staff, the location and the cleanliness of this hotel made being away from my family and little easier to cope with.
+If I need to be in the area again I will...I was in town on business.  I had business all over Southern Louisiania, so I needed a central location.  This was a good place and in a great location.  It is very close to Sam's and a Target which is in a nice shopping center with lots of nice stores, a movie theater, and several eating options very close by.  A nice feature for a business traveler.The hotel was super clean with large rooms and a nice clean bathroom.  They offered free WiFi (which I had problems with and never seemed to work as well as it should have) and free breakfast which was a typical hotel breakfast, but a little better.  The only two things I didn't like were that the fitness center was very small and lacked equipment for a full workout, and I had almost no cell phone reception in the hotel.  I had to go outside on several occasions just to make phone calls.The staff was very friendly and very helpful.  They helped me with restaurant suggestions a couple of times and were always greeting me when I was arriving or telling me to have a good day when I was leaving.Being away from home is never my choice, but the staff, the location and the cleanliness of this hotel made being away from my family and little easier to cope with.If I need to be in the area again I will definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christina R, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>I was in town on business.  I had business all over Southern Louisiania, so I needed a central location.  This was a good place and in a great location.  It is very close to Sam's and a Target which is in a nice shopping center with lots of nice stores, a movie theater, and several eating options very close by.  A nice feature for a business traveler.
+The hotel was super clean with large rooms and a nice clean bathroom.  They offered free WiFi (which I had problems with and never seemed to work as well as it should have) and free breakfast which was a typical hotel breakfast, but a little better.  The only two things I didn't like were that the fitness center was very small and lacked equipment for a full workout, and I had almost no cell phone reception in the hotel.  I had to go outside on several occasions just to make phone calls.
+The staff was very friendly and very helpful.  They helped me with restaurant suggestions a couple of times and were always greeting me when I was arriving or telling me to have a good day when I was leaving.
+Being away from home is never my choice, but the staff, the location and the cleanliness of this hotel made being away from my family and little easier to cope with.
+If I need to be in the area again I will...I was in town on business.  I had business all over Southern Louisiania, so I needed a central location.  This was a good place and in a great location.  It is very close to Sam's and a Target which is in a nice shopping center with lots of nice stores, a movie theater, and several eating options very close by.  A nice feature for a business traveler.The hotel was super clean with large rooms and a nice clean bathroom.  They offered free WiFi (which I had problems with and never seemed to work as well as it should have) and free breakfast which was a typical hotel breakfast, but a little better.  The only two things I didn't like were that the fitness center was very small and lacked equipment for a full workout, and I had almost no cell phone reception in the hotel.  I had to go outside on several occasions just to make phone calls.The staff was very friendly and very helpful.  They helped me with restaurant suggestions a couple of times and were always greeting me when I was arriving or telling me to have a good day when I was leaving.Being away from home is never my choice, but the staff, the location and the cleanliness of this hotel made being away from my family and little easier to cope with.If I need to be in the area again I will definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r207105536-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207105536</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel - Staff Not So Much</t>
+  </si>
+  <si>
+    <t>The Good: Hotel New, Beds Very Comfortable, Location GreatThe Bad:  Bathroom Not Clean upon arrival, had to call front desk to have someone come up to clean upon arrival.  Stayed 2 nights, second day housekeeping came to door at 9am, we said we would be out of room in 10 minutes for them to clean room. They NEVER came back to clean room. I had a second room for my son, Never Cleaned his room.  Check out was 11am, as we were in Covington for a wedding and did not get in until late the night before, called down to get 30 more minutes longer and check out at 11:30. Front Desk refused and said we had to be out by 11am!!! Like they were going to be outside the door of our 2 rooms to finally CLEAN at 11am!! Seriously!!!! I was shocked to say the least! Being a IHG rewards member I was very disappointed with how they run this hotel! There are lots of hotels in this area, Choose Another!!! I know I will for my next visit to Covington!!Disappointed TravellerMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Christina R, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>The Good: Hotel New, Beds Very Comfortable, Location GreatThe Bad:  Bathroom Not Clean upon arrival, had to call front desk to have someone come up to clean upon arrival.  Stayed 2 nights, second day housekeeping came to door at 9am, we said we would be out of room in 10 minutes for them to clean room. They NEVER came back to clean room. I had a second room for my son, Never Cleaned his room.  Check out was 11am, as we were in Covington for a wedding and did not get in until late the night before, called down to get 30 more minutes longer and check out at 11:30. Front Desk refused and said we had to be out by 11am!!! Like they were going to be outside the door of our 2 rooms to finally CLEAN at 11am!! Seriously!!!! I was shocked to say the least! Being a IHG rewards member I was very disappointed with how they run this hotel! There are lots of hotels in this area, Choose Another!!! I know I will for my next visit to Covington!!Disappointed TravellerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r201994133-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201994133</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Beautifully decorated. When we stayed it was still brand new. The beds were incredibly comfortable, with a selection of pillows labeled as firm or soft to choose from. The hotel staff were very friendly and incredibly helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christina R, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2014</t>
+  </si>
+  <si>
+    <t>Beautifully decorated. When we stayed it was still brand new. The beds were incredibly comfortable, with a selection of pillows labeled as firm or soft to choose from. The hotel staff were very friendly and incredibly helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r197874330-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197874330</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel, Great Staff!</t>
+  </si>
+  <si>
+    <t>My family had 2 rooms at this hotel a couple of weekends ago and everything was absolutely wonderful.  The rooms were nice and Modern, and had New Orleans theme going on.  This hotel had a great breakfast set up that could please just about anyone.  Also, the bathrooms were well done with the largest showers i have ever seen in a hotel.  The staff were also friendly and remembered my name when I passed by the front desk and checked out.  This hotel is also located in a great location with a movie theater nearby and local shopping and restaurants.  If you are looking for a nice place to stay that is convenient to everything I highly recommend this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My family had 2 rooms at this hotel a couple of weekends ago and everything was absolutely wonderful.  The rooms were nice and Modern, and had New Orleans theme going on.  This hotel had a great breakfast set up that could please just about anyone.  Also, the bathrooms were well done with the largest showers i have ever seen in a hotel.  The staff were also friendly and remembered my name when I passed by the front desk and checked out.  This hotel is also located in a great location with a movie theater nearby and local shopping and restaurants.  If you are looking for a nice place to stay that is convenient to everything I highly recommend this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r197569185-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197569185</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Excellent Manager</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and very clean.  I stayed a week for business and it was quiet and very comfortable.  The hotel manager, Christina Restrepo, was very responsive to all of my inquiries and requests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christina R, General Manager at Holiday Inn Express Covington Madisonville, responded to this reviewResponded May 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and very clean.  I stayed a week for business and it was quiet and very comfortable.  The hotel manager, Christina Restrepo, was very responsive to all of my inquiries and requests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d4404715-r196991634-Holiday_Inn_Express_Covington_Madisonville-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196991634</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Brand new and well done</t>
+  </si>
+  <si>
+    <t>The hotel has a unique and lively décor. Rooms with high ceilings and very comfortable beds. Breakfast is included and had several hot choices in addition to the standard continental fare. The bathroom was impeccably clean which is a big deal to me. We were in town for a wedding and arrived much later than anticipated due to some travel issues. I told the front desk manager we were trying to get to a 6pm wedding (it was 5:30 when we arrived!) and she got us checked in to our room in record time!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel has a unique and lively décor. Rooms with high ceilings and very comfortable beds. Breakfast is included and had several hot choices in addition to the standard continental fare. The bathroom was impeccably clean which is a big deal to me. We were in town for a wedding and arrived much later than anticipated due to some travel issues. I told the front desk manager we were trying to get to a 6pm wedding (it was 5:30 when we arrived!) and she got us checked in to our room in record time!More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -555,6 +2936,6415 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>204</v>
+      </c>
+      <c r="X24" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>213</v>
+      </c>
+      <c r="X25" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>221</v>
+      </c>
+      <c r="X26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>243</v>
+      </c>
+      <c r="X29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>251</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>252</v>
+      </c>
+      <c r="X30" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s">
+        <v>251</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>252</v>
+      </c>
+      <c r="X31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>266</v>
+      </c>
+      <c r="X32" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>274</v>
+      </c>
+      <c r="X33" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>282</v>
+      </c>
+      <c r="X34" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>308</v>
+      </c>
+      <c r="X37" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>316</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>317</v>
+      </c>
+      <c r="X38" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>325</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>326</v>
+      </c>
+      <c r="X39" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>335</v>
+      </c>
+      <c r="X40" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>352</v>
+      </c>
+      <c r="X42" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>360</v>
+      </c>
+      <c r="X43" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s">
+        <v>367</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" t="s">
+        <v>251</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>369</v>
+      </c>
+      <c r="X44" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>374</v>
+      </c>
+      <c r="L45" t="s">
+        <v>375</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>376</v>
+      </c>
+      <c r="O45" t="s">
+        <v>251</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>377</v>
+      </c>
+      <c r="X45" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>376</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>368</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>384</v>
+      </c>
+      <c r="X47" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>398</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>399</v>
+      </c>
+      <c r="X48" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>398</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>410</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J50" t="s">
+        <v>412</v>
+      </c>
+      <c r="K50" t="s">
+        <v>413</v>
+      </c>
+      <c r="L50" t="s">
+        <v>414</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>415</v>
+      </c>
+      <c r="X50" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>419</v>
+      </c>
+      <c r="J51" t="s">
+        <v>420</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+      <c r="L51" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>376</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>423</v>
+      </c>
+      <c r="X51" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" t="s">
+        <v>428</v>
+      </c>
+      <c r="K52" t="s">
+        <v>429</v>
+      </c>
+      <c r="L52" t="s">
+        <v>430</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>376</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>431</v>
+      </c>
+      <c r="X52" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>376</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>431</v>
+      </c>
+      <c r="X53" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>376</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>376</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>453</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>376</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>461</v>
+      </c>
+      <c r="X56" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" t="s">
+        <v>251</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>470</v>
+      </c>
+      <c r="X57" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>469</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>478</v>
+      </c>
+      <c r="X58" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>481</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K59" t="s">
+        <v>483</v>
+      </c>
+      <c r="L59" t="s">
+        <v>484</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>469</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>478</v>
+      </c>
+      <c r="X59" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>475</v>
+      </c>
+      <c r="K60" t="s">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s">
+        <v>489</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>469</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>478</v>
+      </c>
+      <c r="X60" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>491</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" t="s">
+        <v>493</v>
+      </c>
+      <c r="K61" t="s">
+        <v>494</v>
+      </c>
+      <c r="L61" t="s">
+        <v>495</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>469</v>
+      </c>
+      <c r="O61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>496</v>
+      </c>
+      <c r="X61" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>499</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>500</v>
+      </c>
+      <c r="J62" t="s">
+        <v>501</v>
+      </c>
+      <c r="K62" t="s">
+        <v>502</v>
+      </c>
+      <c r="L62" t="s">
+        <v>503</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>504</v>
+      </c>
+      <c r="X62" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>507</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>508</v>
+      </c>
+      <c r="J63" t="s">
+        <v>509</v>
+      </c>
+      <c r="K63" t="s">
+        <v>510</v>
+      </c>
+      <c r="L63" t="s">
+        <v>511</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>469</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>512</v>
+      </c>
+      <c r="X63" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>516</v>
+      </c>
+      <c r="J64" t="s">
+        <v>517</v>
+      </c>
+      <c r="K64" t="s">
+        <v>518</v>
+      </c>
+      <c r="L64" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>520</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>527</v>
+      </c>
+      <c r="L65" t="s">
+        <v>528</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>529</v>
+      </c>
+      <c r="O65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>530</v>
+      </c>
+      <c r="X65" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>521</v>
+      </c>
+      <c r="X66" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>539</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>540</v>
+      </c>
+      <c r="J67" t="s">
+        <v>541</v>
+      </c>
+      <c r="K67" t="s">
+        <v>542</v>
+      </c>
+      <c r="L67" t="s">
+        <v>543</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>544</v>
+      </c>
+      <c r="X67" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>547</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>548</v>
+      </c>
+      <c r="J68" t="s">
+        <v>549</v>
+      </c>
+      <c r="K68" t="s">
+        <v>550</v>
+      </c>
+      <c r="L68" t="s">
+        <v>551</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>520</v>
+      </c>
+      <c r="O68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>552</v>
+      </c>
+      <c r="X68" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>556</v>
+      </c>
+      <c r="J69" t="s">
+        <v>557</v>
+      </c>
+      <c r="K69" t="s">
+        <v>558</v>
+      </c>
+      <c r="L69" t="s">
+        <v>559</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>520</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>560</v>
+      </c>
+      <c r="X69" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>563</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>564</v>
+      </c>
+      <c r="J70" t="s">
+        <v>565</v>
+      </c>
+      <c r="K70" t="s">
+        <v>566</v>
+      </c>
+      <c r="L70" t="s">
+        <v>567</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>520</v>
+      </c>
+      <c r="O70" t="s">
+        <v>68</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>568</v>
+      </c>
+      <c r="X70" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>571</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>572</v>
+      </c>
+      <c r="J71" t="s">
+        <v>573</v>
+      </c>
+      <c r="K71" t="s">
+        <v>574</v>
+      </c>
+      <c r="L71" t="s">
+        <v>575</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>325</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>576</v>
+      </c>
+      <c r="X71" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>579</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>580</v>
+      </c>
+      <c r="J72" t="s">
+        <v>581</v>
+      </c>
+      <c r="K72" t="s">
+        <v>582</v>
+      </c>
+      <c r="L72" t="s">
+        <v>583</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>325</v>
+      </c>
+      <c r="O72" t="s">
+        <v>251</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>584</v>
+      </c>
+      <c r="X72" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>587</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>588</v>
+      </c>
+      <c r="J73" t="s">
+        <v>589</v>
+      </c>
+      <c r="K73" t="s">
+        <v>590</v>
+      </c>
+      <c r="L73" t="s">
+        <v>591</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>592</v>
+      </c>
+      <c r="O73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>593</v>
+      </c>
+      <c r="X73" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>596</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>597</v>
+      </c>
+      <c r="J74" t="s">
+        <v>598</v>
+      </c>
+      <c r="K74" t="s">
+        <v>599</v>
+      </c>
+      <c r="L74" t="s">
+        <v>600</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>601</v>
+      </c>
+      <c r="X74" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>604</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>605</v>
+      </c>
+      <c r="J75" t="s">
+        <v>606</v>
+      </c>
+      <c r="K75" t="s">
+        <v>607</v>
+      </c>
+      <c r="L75" t="s">
+        <v>608</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>592</v>
+      </c>
+      <c r="O75" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>609</v>
+      </c>
+      <c r="X75" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>612</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>613</v>
+      </c>
+      <c r="J76" t="s">
+        <v>614</v>
+      </c>
+      <c r="K76" t="s">
+        <v>615</v>
+      </c>
+      <c r="L76" t="s">
+        <v>616</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>617</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>609</v>
+      </c>
+      <c r="X76" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>619</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>620</v>
+      </c>
+      <c r="J77" t="s">
+        <v>621</v>
+      </c>
+      <c r="K77" t="s">
+        <v>622</v>
+      </c>
+      <c r="L77" t="s">
+        <v>623</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>624</v>
+      </c>
+      <c r="O77" t="s">
+        <v>251</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>625</v>
+      </c>
+      <c r="X77" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>628</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>629</v>
+      </c>
+      <c r="J78" t="s">
+        <v>630</v>
+      </c>
+      <c r="K78" t="s">
+        <v>631</v>
+      </c>
+      <c r="L78" t="s">
+        <v>632</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>633</v>
+      </c>
+      <c r="O78" t="s">
+        <v>251</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>634</v>
+      </c>
+      <c r="X78" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>637</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>638</v>
+      </c>
+      <c r="J79" t="s">
+        <v>639</v>
+      </c>
+      <c r="K79" t="s">
+        <v>640</v>
+      </c>
+      <c r="L79" t="s">
+        <v>641</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>633</v>
+      </c>
+      <c r="O79" t="s">
+        <v>34</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>642</v>
+      </c>
+      <c r="X79" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>645</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>646</v>
+      </c>
+      <c r="J80" t="s">
+        <v>647</v>
+      </c>
+      <c r="K80" t="s">
+        <v>648</v>
+      </c>
+      <c r="L80" t="s">
+        <v>649</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>633</v>
+      </c>
+      <c r="O80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>650</v>
+      </c>
+      <c r="X80" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>652</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>653</v>
+      </c>
+      <c r="J81" t="s">
+        <v>654</v>
+      </c>
+      <c r="K81" t="s">
+        <v>655</v>
+      </c>
+      <c r="L81" t="s">
+        <v>656</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>633</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>657</v>
+      </c>
+      <c r="X81" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>660</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>661</v>
+      </c>
+      <c r="J82" t="s">
+        <v>662</v>
+      </c>
+      <c r="K82" t="s">
+        <v>663</v>
+      </c>
+      <c r="L82" t="s">
+        <v>664</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>665</v>
+      </c>
+      <c r="X82" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>668</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>669</v>
+      </c>
+      <c r="J83" t="s">
+        <v>670</v>
+      </c>
+      <c r="K83" t="s">
+        <v>671</v>
+      </c>
+      <c r="L83" t="s">
+        <v>672</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>633</v>
+      </c>
+      <c r="O83" t="s">
+        <v>68</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>673</v>
+      </c>
+      <c r="X83" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>676</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>677</v>
+      </c>
+      <c r="J84" t="s">
+        <v>678</v>
+      </c>
+      <c r="K84" t="s">
+        <v>679</v>
+      </c>
+      <c r="L84" t="s">
+        <v>680</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>681</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>682</v>
+      </c>
+      <c r="X84" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>685</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>686</v>
+      </c>
+      <c r="J85" t="s">
+        <v>687</v>
+      </c>
+      <c r="K85" t="s">
+        <v>688</v>
+      </c>
+      <c r="L85" t="s">
+        <v>689</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>682</v>
+      </c>
+      <c r="X85" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>691</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>692</v>
+      </c>
+      <c r="J86" t="s">
+        <v>693</v>
+      </c>
+      <c r="K86" t="s">
+        <v>694</v>
+      </c>
+      <c r="L86" t="s">
+        <v>695</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>696</v>
+      </c>
+      <c r="O86" t="s">
+        <v>251</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>682</v>
+      </c>
+      <c r="X86" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>698</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>699</v>
+      </c>
+      <c r="J87" t="s">
+        <v>700</v>
+      </c>
+      <c r="K87" t="s">
+        <v>701</v>
+      </c>
+      <c r="L87" t="s">
+        <v>702</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>703</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>682</v>
+      </c>
+      <c r="X87" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>705</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>706</v>
+      </c>
+      <c r="J88" t="s">
+        <v>707</v>
+      </c>
+      <c r="K88" t="s">
+        <v>708</v>
+      </c>
+      <c r="L88" t="s">
+        <v>709</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>703</v>
+      </c>
+      <c r="O88" t="s">
+        <v>68</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>682</v>
+      </c>
+      <c r="X88" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>711</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>712</v>
+      </c>
+      <c r="J89" t="s">
+        <v>713</v>
+      </c>
+      <c r="K89" t="s">
+        <v>714</v>
+      </c>
+      <c r="L89" t="s">
+        <v>715</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>703</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>682</v>
+      </c>
+      <c r="X89" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>717</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>718</v>
+      </c>
+      <c r="J90" t="s">
+        <v>719</v>
+      </c>
+      <c r="K90" t="s">
+        <v>720</v>
+      </c>
+      <c r="L90" t="s">
+        <v>721</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>682</v>
+      </c>
+      <c r="X90" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>723</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>724</v>
+      </c>
+      <c r="J91" t="s">
+        <v>725</v>
+      </c>
+      <c r="K91" t="s">
+        <v>726</v>
+      </c>
+      <c r="L91" t="s">
+        <v>727</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>728</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>682</v>
+      </c>
+      <c r="X91" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>730</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>731</v>
+      </c>
+      <c r="J92" t="s">
+        <v>732</v>
+      </c>
+      <c r="K92" t="s">
+        <v>733</v>
+      </c>
+      <c r="L92" t="s">
+        <v>734</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>682</v>
+      </c>
+      <c r="X92" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>736</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>737</v>
+      </c>
+      <c r="J93" t="s">
+        <v>738</v>
+      </c>
+      <c r="K93" t="s">
+        <v>739</v>
+      </c>
+      <c r="L93" t="s">
+        <v>740</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>703</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>682</v>
+      </c>
+      <c r="X93" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>742</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>743</v>
+      </c>
+      <c r="J94" t="s">
+        <v>744</v>
+      </c>
+      <c r="K94" t="s">
+        <v>745</v>
+      </c>
+      <c r="L94" t="s">
+        <v>746</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>747</v>
+      </c>
+      <c r="X94" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>750</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J95" t="s">
+        <v>752</v>
+      </c>
+      <c r="K95" t="s">
+        <v>753</v>
+      </c>
+      <c r="L95" t="s">
+        <v>754</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>755</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>756</v>
+      </c>
+      <c r="X95" t="s">
+        <v>757</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>759</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>760</v>
+      </c>
+      <c r="J96" t="s">
+        <v>761</v>
+      </c>
+      <c r="K96" t="s">
+        <v>762</v>
+      </c>
+      <c r="L96" t="s">
+        <v>763</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>728</v>
+      </c>
+      <c r="O96" t="s">
+        <v>34</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>764</v>
+      </c>
+      <c r="X96" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>767</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>768</v>
+      </c>
+      <c r="J97" t="s">
+        <v>769</v>
+      </c>
+      <c r="K97" t="s">
+        <v>770</v>
+      </c>
+      <c r="L97" t="s">
+        <v>771</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>755</v>
+      </c>
+      <c r="O97" t="s">
+        <v>34</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>772</v>
+      </c>
+      <c r="X97" t="s">
+        <v>773</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>776</v>
+      </c>
+      <c r="J98" t="s">
+        <v>777</v>
+      </c>
+      <c r="K98" t="s">
+        <v>778</v>
+      </c>
+      <c r="L98" t="s">
+        <v>779</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>780</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>781</v>
+      </c>
+      <c r="X98" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>784</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>785</v>
+      </c>
+      <c r="J99" t="s">
+        <v>786</v>
+      </c>
+      <c r="K99" t="s">
+        <v>494</v>
+      </c>
+      <c r="L99" t="s">
+        <v>787</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>788</v>
+      </c>
+      <c r="X99" t="s">
+        <v>789</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>791</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>792</v>
+      </c>
+      <c r="J100" t="s">
+        <v>793</v>
+      </c>
+      <c r="K100" t="s">
+        <v>794</v>
+      </c>
+      <c r="L100" t="s">
+        <v>795</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>796</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>788</v>
+      </c>
+      <c r="X100" t="s">
+        <v>789</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>798</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>799</v>
+      </c>
+      <c r="J101" t="s">
+        <v>800</v>
+      </c>
+      <c r="K101" t="s">
+        <v>801</v>
+      </c>
+      <c r="L101" t="s">
+        <v>802</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>796</v>
+      </c>
+      <c r="O101" t="s">
+        <v>34</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>803</v>
+      </c>
+      <c r="X101" t="s">
+        <v>804</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>62811</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>806</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>807</v>
+      </c>
+      <c r="J102" t="s">
+        <v>808</v>
+      </c>
+      <c r="K102" t="s">
+        <v>809</v>
+      </c>
+      <c r="L102" t="s">
+        <v>810</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>796</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>803</v>
+      </c>
+      <c r="X102" t="s">
+        <v>804</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -577,31 +9367,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>812</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>813</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>814</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>815</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>816</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>817</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>818</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>819</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2">
@@ -609,31 +9399,31 @@
         <v>62811</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>821</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>823</v>
       </c>
       <c r="E2" t="n">
         <v>70433</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>824</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>821</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>825</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>826</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
